--- a/ProcessedData/conf_svm_audio_4.xlsx
+++ b/ProcessedData/conf_svm_audio_4.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.176734555692902</v>
+        <v>-0.1767329922851872</v>
       </c>
       <c r="C2">
-        <v>0.06863253921416795</v>
+        <v>0.06862821715063827</v>
       </c>
       <c r="D2">
-        <v>-0.9736096019732863</v>
+        <v>-0.9736041763249734</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -431,13 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.09843074410563996</v>
+        <v>-0.09842944748367814</v>
       </c>
       <c r="C3">
-        <v>-0.07426288626698324</v>
+        <v>-0.07426759514995385</v>
       </c>
       <c r="D3">
-        <v>-0.8831016368189766</v>
+        <v>-0.8830954956836313</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.3263412589345177</v>
+        <v>-0.3263404369052345</v>
       </c>
       <c r="C4">
-        <v>-0.006054032678955101</v>
+        <v>-0.006058473308852119</v>
       </c>
       <c r="D4">
-        <v>-0.7510397401237602</v>
+        <v>-0.7510341163515999</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.6521902307848556</v>
+        <v>-0.6521895267403772</v>
       </c>
       <c r="C5">
-        <v>-0.2584003053284877</v>
+        <v>-0.2584058444692073</v>
       </c>
       <c r="D5">
-        <v>-0.2431577902265013</v>
+        <v>-0.2431525764872374</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -482,13 +485,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.08105022323738315</v>
+        <v>-0.08104887649428034</v>
       </c>
       <c r="C6">
-        <v>-0.1109987066290255</v>
+        <v>-0.1110031015630225</v>
       </c>
       <c r="D6">
-        <v>-0.931587726781498</v>
+        <v>-0.9315825301752478</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -499,13 +505,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.1545432545710098</v>
+        <v>-0.1545419748085141</v>
       </c>
       <c r="C7">
-        <v>-0.1185729130857967</v>
+        <v>-0.1185777285308039</v>
       </c>
       <c r="D7">
-        <v>-0.843742879845506</v>
+        <v>-0.8437369318010074</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -516,13 +525,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.516641825290569</v>
+        <v>-0.5166415919610792</v>
       </c>
       <c r="C8">
-        <v>-0.6132042596272722</v>
+        <v>-0.6132088818968606</v>
       </c>
       <c r="D8">
-        <v>0.0005829861224312394</v>
+        <v>0.000588732516895174</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -533,13 +545,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.1097790819641242</v>
+        <v>-0.109778134429765</v>
       </c>
       <c r="C9">
-        <v>-0.2323286721741573</v>
+        <v>-0.2323342050115312</v>
       </c>
       <c r="D9">
-        <v>-0.7150640651908788</v>
+        <v>-0.7150579246642399</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.4253248095599704</v>
+        <v>-0.4253235928104575</v>
       </c>
       <c r="C10">
-        <v>-0.1519923918189678</v>
+        <v>-0.1519976020389612</v>
       </c>
       <c r="D10">
-        <v>-0.5158703889401424</v>
+        <v>-0.5158645755130911</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.3749803306241984</v>
+        <v>-0.3749786070738218</v>
       </c>
       <c r="C11">
-        <v>0.03787262980326978</v>
+        <v>0.03786717562499498</v>
       </c>
       <c r="D11">
-        <v>-0.7496955798006788</v>
+        <v>-0.7496896031684954</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -584,13 +605,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.3295416629793182</v>
+        <v>-0.3295405497403673</v>
       </c>
       <c r="C12">
-        <v>-0.1202369881259161</v>
+        <v>-0.120241743248069</v>
       </c>
       <c r="D12">
-        <v>-0.6249978900017896</v>
+        <v>-0.6249920939651541</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -601,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.6731646483705036</v>
+        <v>-0.6731639441435556</v>
       </c>
       <c r="C13">
-        <v>-0.388468453609317</v>
+        <v>-0.3884731028139108</v>
       </c>
       <c r="D13">
-        <v>-0.01756100859022036</v>
+        <v>-0.01755536920325718</v>
+      </c>
+      <c r="E13">
+        <v>28</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -618,13 +645,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.5262375891278568</v>
+        <v>-0.526236516203508</v>
       </c>
       <c r="C14">
-        <v>-0.3959444143663098</v>
+        <v>-0.3959494723874594</v>
       </c>
       <c r="D14">
-        <v>-0.2089532067911333</v>
+        <v>-0.208947180577936</v>
+      </c>
+      <c r="E14">
+        <v>28</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -635,13 +665,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.3052542049265774</v>
+        <v>-0.3052532444154855</v>
       </c>
       <c r="C15">
-        <v>-0.1915586645101137</v>
+        <v>-0.1915641693085497</v>
       </c>
       <c r="D15">
-        <v>-0.6125035441245554</v>
+        <v>-0.6124974789659017</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -652,13 +685,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.6705646168075325</v>
+        <v>-0.6705636861701306</v>
       </c>
       <c r="C16">
-        <v>-0.2749291806004185</v>
+        <v>-0.2749344079701614</v>
       </c>
       <c r="D16">
-        <v>-0.2078240452315496</v>
+        <v>-0.2078182735355285</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.01072428614298107</v>
+        <v>-0.010723510361178</v>
       </c>
       <c r="C17">
-        <v>0.09537160781862603</v>
+        <v>0.09536693121051171</v>
       </c>
       <c r="D17">
-        <v>-1.162406103321644</v>
+        <v>-1.162400129076743</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -686,13 +725,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.9671908786064507</v>
+        <v>-0.9671906853648132</v>
       </c>
       <c r="C18">
-        <v>-0.401053739184175</v>
+        <v>-0.401058363487922</v>
       </c>
       <c r="D18">
-        <v>0.2695052545564831</v>
+        <v>0.2695113933409871</v>
+      </c>
+      <c r="E18">
+        <v>28</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -703,13 +745,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.6559071206897182</v>
+        <v>-0.6559058045896491</v>
       </c>
       <c r="C19">
-        <v>-0.1134469117290178</v>
+        <v>-0.1134519446225769</v>
       </c>
       <c r="D19">
-        <v>-0.3360640813993665</v>
+        <v>-0.3360583985843453</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -720,13 +765,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.4370749325144241</v>
+        <v>-0.4370739759033926</v>
       </c>
       <c r="C20">
-        <v>-0.3415335205057199</v>
+        <v>-0.3415384108421775</v>
       </c>
       <c r="D20">
-        <v>-0.3860920811249914</v>
+        <v>-0.386086145761074</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -737,13 +785,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.392805216386824</v>
+        <v>-0.3928041144734876</v>
       </c>
       <c r="C21">
-        <v>-0.3303865505492911</v>
+        <v>-0.3303912990800883</v>
       </c>
       <c r="D21">
-        <v>-0.2762087623150596</v>
+        <v>-0.2762029912275356</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -754,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.578169075091821</v>
+        <v>-0.5781681199767877</v>
       </c>
       <c r="C22">
-        <v>-0.3828278434404846</v>
+        <v>-0.3828324780197283</v>
       </c>
       <c r="D22">
-        <v>-0.03762410986073872</v>
+        <v>-0.03761935192140664</v>
+      </c>
+      <c r="E22">
+        <v>29</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -771,13 +825,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.5842512839743411</v>
+        <v>-0.5842496592083388</v>
       </c>
       <c r="C23">
-        <v>-0.3296201438596759</v>
+        <v>-0.3296249121210674</v>
       </c>
       <c r="D23">
-        <v>-0.1604825380256519</v>
+        <v>-0.1604773428435935</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -788,13 +845,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.8834379504089034</v>
+        <v>-0.8834361908542495</v>
       </c>
       <c r="C24">
-        <v>-0.3513054294585989</v>
+        <v>-0.3513109895513354</v>
       </c>
       <c r="D24">
-        <v>0.1361040851904454</v>
+        <v>0.1361102143921112</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -805,13 +865,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.8236984265214025</v>
+        <v>-0.8236970285034331</v>
       </c>
       <c r="C25">
-        <v>-0.3426196924215906</v>
+        <v>-0.3426240316075861</v>
       </c>
       <c r="D25">
-        <v>0.05633722444206701</v>
+        <v>0.05634319752475558</v>
+      </c>
+      <c r="E25">
+        <v>29</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -822,13 +885,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.9239048324336623</v>
+        <v>-0.923904125611379</v>
       </c>
       <c r="C26">
-        <v>-0.3952210717590852</v>
+        <v>-0.3952268382429187</v>
       </c>
       <c r="D26">
-        <v>0.2396372467043184</v>
+        <v>0.2396425231391631</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -839,13 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.323408401748555</v>
+        <v>-0.3234064064930678</v>
       </c>
       <c r="C27">
-        <v>-0.3914623717786955</v>
+        <v>-0.3914674302017974</v>
       </c>
       <c r="D27">
-        <v>-0.2956275852501939</v>
+        <v>-0.2956219300952587</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -856,13 +925,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.3560239058094971</v>
+        <v>-0.3560226040392179</v>
       </c>
       <c r="C28">
-        <v>-0.4620241010834452</v>
+        <v>-0.4620291930905005</v>
       </c>
       <c r="D28">
-        <v>-0.1955325407633588</v>
+        <v>-0.1955272756388866</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -873,13 +945,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.5577689087228067</v>
+        <v>-0.557767250907772</v>
       </c>
       <c r="C29">
-        <v>-0.2801880357123941</v>
+        <v>-0.2801928150231363</v>
       </c>
       <c r="D29">
-        <v>-0.2421158551448906</v>
+        <v>-0.2421104326976004</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -890,13 +965,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.190667201460864</v>
+        <v>-1.190665529142159</v>
       </c>
       <c r="C30">
-        <v>-0.1372201938326786</v>
+        <v>-0.1372253126938861</v>
       </c>
       <c r="D30">
-        <v>0.1938055253745328</v>
+        <v>0.1938107850839316</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -907,13 +985,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.8875068116540714</v>
+        <v>-0.8875060876243033</v>
       </c>
       <c r="C31">
-        <v>-0.8466190858634414</v>
+        <v>-0.846625568668572</v>
       </c>
       <c r="D31">
-        <v>0.6235937463812151</v>
+        <v>0.6235989361408171</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -924,13 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.7613028214079678</v>
+        <v>-0.7613022010734853</v>
       </c>
       <c r="C32">
-        <v>-0.4929220891060544</v>
+        <v>-0.4929260690643277</v>
       </c>
       <c r="D32">
-        <v>0.1946552011614251</v>
+        <v>0.1946622324391215</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -941,13 +1025,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.5294173563390613</v>
+        <v>-0.529415828330306</v>
       </c>
       <c r="C33">
-        <v>-0.3694734367109394</v>
+        <v>-0.3694789373430039</v>
       </c>
       <c r="D33">
-        <v>-0.1480097829516589</v>
+        <v>-0.1480042393278945</v>
+      </c>
+      <c r="E33">
+        <v>29</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -958,13 +1045,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.7771707675501993</v>
+        <v>-0.7771693192255716</v>
       </c>
       <c r="C34">
-        <v>-0.9636867123343168</v>
+        <v>-0.9636919719432966</v>
       </c>
       <c r="D34">
-        <v>0.6471610326460187</v>
+        <v>0.6471669994337149</v>
+      </c>
+      <c r="E34">
+        <v>29</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -975,13 +1065,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.5185410182695829</v>
+        <v>-0.5185393837688473</v>
       </c>
       <c r="C35">
-        <v>-0.51233547372486</v>
+        <v>-0.5123405842820334</v>
       </c>
       <c r="D35">
-        <v>0.002912297485262783</v>
+        <v>0.002918442122567755</v>
+      </c>
+      <c r="E35">
+        <v>29</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -992,13 +1085,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.7398398263723919</v>
+        <v>-0.7398379798188276</v>
       </c>
       <c r="C36">
-        <v>-0.3953698738934729</v>
+        <v>-0.3953754201767227</v>
       </c>
       <c r="D36">
-        <v>0.08001934192374649</v>
+        <v>0.08002470929554539</v>
+      </c>
+      <c r="E36">
+        <v>29</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1009,13 +1105,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.6804989824485916</v>
+        <v>-0.6804977944416418</v>
       </c>
       <c r="C37">
-        <v>-0.4616933100226424</v>
+        <v>-0.4616974531144771</v>
       </c>
       <c r="D37">
-        <v>0.06954844335657917</v>
+        <v>0.06955316252885979</v>
+      </c>
+      <c r="E37">
+        <v>29</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1026,13 +1125,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.5147041201993108</v>
+        <v>-0.5147025741261638</v>
       </c>
       <c r="C38">
-        <v>-0.4935392924094852</v>
+        <v>-0.4935446430346684</v>
       </c>
       <c r="D38">
-        <v>-0.02643716552643571</v>
+        <v>-0.02643146785020545</v>
+      </c>
+      <c r="E38">
+        <v>29</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1043,13 +1145,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.7156192781883196</v>
+        <v>-0.7156177745830097</v>
       </c>
       <c r="C39">
-        <v>-0.8235118545816034</v>
+        <v>-0.8235167970354056</v>
       </c>
       <c r="D39">
-        <v>0.3994703078400743</v>
+        <v>0.3994750896266458</v>
+      </c>
+      <c r="E39">
+        <v>29</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -1060,13 +1165,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.75125667270852</v>
+        <v>-0.7512563957347526</v>
       </c>
       <c r="C40">
-        <v>-0.1865853934739109</v>
+        <v>-0.1865908069102078</v>
       </c>
       <c r="D40">
-        <v>-0.1056156677336063</v>
+        <v>-0.1056101349702783</v>
+      </c>
+      <c r="E40">
+        <v>29</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -1077,13 +1185,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.6311598043224095</v>
+        <v>-0.631158582941946</v>
       </c>
       <c r="C41">
-        <v>-0.4883836201681022</v>
+        <v>-0.4883896418490546</v>
       </c>
       <c r="D41">
-        <v>0.04518741037924823</v>
+        <v>0.04519255222814367</v>
+      </c>
+      <c r="E41">
+        <v>29</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -1094,13 +1205,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.2678393618418734</v>
+        <v>-0.2678381934319098</v>
       </c>
       <c r="C42">
-        <v>-0.263825606433274</v>
+        <v>-0.2638302346610621</v>
       </c>
       <c r="D42">
-        <v>-0.4911808604050332</v>
+        <v>-0.4911751982783369</v>
+      </c>
+      <c r="E42">
+        <v>29</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1111,13 +1225,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.3300925817200818</v>
+        <v>-0.3300911758113956</v>
       </c>
       <c r="C43">
-        <v>-0.3181563738709157</v>
+        <v>-0.3181608775930165</v>
       </c>
       <c r="D43">
-        <v>-0.3821551936435421</v>
+        <v>-0.382149712687622</v>
+      </c>
+      <c r="E43">
+        <v>29</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1128,13 +1245,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.8727245162398404</v>
+        <v>-0.8727226902825462</v>
       </c>
       <c r="C44">
-        <v>-0.4700475373085724</v>
+        <v>-0.4700540345553146</v>
       </c>
       <c r="D44">
-        <v>0.1650801643202011</v>
+        <v>0.1650852073134547</v>
+      </c>
+      <c r="E44">
+        <v>29</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -1145,13 +1265,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.6934016050222881</v>
+        <v>-0.6934003773941896</v>
       </c>
       <c r="C45">
-        <v>-0.631321157652724</v>
+        <v>-0.6313264034632439</v>
       </c>
       <c r="D45">
-        <v>0.2435842744947789</v>
+        <v>0.2435899113443089</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -1162,13 +1285,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.160410162060795</v>
+        <v>-1.160408910602643</v>
       </c>
       <c r="C46">
-        <v>-0.286991003654569</v>
+        <v>-0.2869955711754794</v>
       </c>
       <c r="D46">
-        <v>0.2885725355864923</v>
+        <v>0.288578334756877</v>
+      </c>
+      <c r="E46">
+        <v>29</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -1179,13 +1305,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.05722315741310088</v>
+        <v>-0.05722159742426504</v>
       </c>
       <c r="C47">
-        <v>-0.8830596698233905</v>
+        <v>-0.8830665935065207</v>
       </c>
       <c r="D47">
-        <v>-0.0773990737459147</v>
+        <v>-0.07739512498751044</v>
+      </c>
+      <c r="E47">
+        <v>29</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1196,13 +1325,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.02645102609918461</v>
+        <v>-0.02644871975409684</v>
       </c>
       <c r="C48">
-        <v>-0.3026847457442476</v>
+        <v>-0.3026897163685504</v>
       </c>
       <c r="D48">
-        <v>-0.7002854771527018</v>
+        <v>-0.7002806117390856</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1213,13 +1345,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.5721364233924457</v>
+        <v>-0.5721354865435879</v>
       </c>
       <c r="C49">
-        <v>-0.3729257756111005</v>
+        <v>-0.3729293522647023</v>
       </c>
       <c r="D49">
-        <v>-0.1220588356179145</v>
+        <v>-0.1220521867427309</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.5676637337515319</v>
+        <v>-0.5676613526200053</v>
       </c>
       <c r="C50">
-        <v>-0.3088061480112199</v>
+        <v>-0.3088115776658573</v>
       </c>
       <c r="D50">
-        <v>-0.1796791063199326</v>
+        <v>-0.1796742640033183</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.278243454903416</v>
+        <v>-1.278240345333972</v>
       </c>
       <c r="C51">
-        <v>0.2132486029976627</v>
+        <v>0.2132432519737798</v>
       </c>
       <c r="D51">
-        <v>-0.0773383782970557</v>
+        <v>-0.07733278877409222</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.2944066725149741</v>
+        <v>-0.294405904169651</v>
       </c>
       <c r="C52">
-        <v>-0.05369944608615695</v>
+        <v>-0.05370391108664357</v>
       </c>
       <c r="D52">
-        <v>-0.6790138981180536</v>
+        <v>-0.6790079282943587</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1281,13 +1425,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.3992717941307895</v>
+        <v>-0.3992688428208695</v>
       </c>
       <c r="C53">
-        <v>0.06315237448017091</v>
+        <v>0.06314889793441025</v>
       </c>
       <c r="D53">
-        <v>-0.7510991039502124</v>
+        <v>-0.7510946047250197</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1298,13 +1445,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.2646227029346213</v>
+        <v>-0.2646199338360184</v>
       </c>
       <c r="C54">
-        <v>-0.07808549295796741</v>
+        <v>-0.07808947679910269</v>
       </c>
       <c r="D54">
-        <v>-0.7224061571186486</v>
+        <v>-0.7223990962008895</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1315,13 +1465,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.5629571982267642</v>
+        <v>-0.5629564357795784</v>
       </c>
       <c r="C55">
-        <v>-0.1121175688020137</v>
+        <v>-0.1121216478641479</v>
       </c>
       <c r="D55">
-        <v>-0.3573202654955101</v>
+        <v>-0.3573139286973984</v>
+      </c>
+      <c r="E55">
+        <v>30</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1332,13 +1485,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.4403184501175869</v>
+        <v>-0.4403164758433983</v>
       </c>
       <c r="C56">
-        <v>-0.07319380092298514</v>
+        <v>-0.07319782576580244</v>
       </c>
       <c r="D56">
-        <v>-0.5424781258591653</v>
+        <v>-0.5424723613424929</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -1349,13 +1505,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.4854588624152619</v>
+        <v>-0.4854585768064744</v>
       </c>
       <c r="C57">
-        <v>-0.1648120067011932</v>
+        <v>-0.1648150072277713</v>
       </c>
       <c r="D57">
-        <v>-0.4532872876094581</v>
+        <v>-0.4532805810156179</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -1366,13 +1525,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-1.382507465883927</v>
+        <v>-1.382505012198777</v>
       </c>
       <c r="C58">
-        <v>0.2685594524750292</v>
+        <v>0.2685537786469477</v>
       </c>
       <c r="D58">
-        <v>0.0001737406511855832</v>
+        <v>0.0001791515039490932</v>
+      </c>
+      <c r="E58">
+        <v>30</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -1383,13 +1545,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.9769683566857728</v>
+        <v>-0.9769680550379342</v>
       </c>
       <c r="C59">
-        <v>-0.4201305816288029</v>
+        <v>-0.4201312140540747</v>
       </c>
       <c r="D59">
-        <v>0.1746671664628092</v>
+        <v>0.1746729809820816</v>
+      </c>
+      <c r="E59">
+        <v>30</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -1400,13 +1565,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.3786739290303082</v>
+        <v>-0.3786719635910278</v>
       </c>
       <c r="C60">
-        <v>-0.2644520288974666</v>
+        <v>-0.2644550550619942</v>
       </c>
       <c r="D60">
-        <v>-0.4068712896008037</v>
+        <v>-0.4068634197654342</v>
+      </c>
+      <c r="E60">
+        <v>30</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -1417,13 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1802234418577052</v>
+        <v>0.1802250486658257</v>
       </c>
       <c r="C61">
-        <v>-0.3085581064556175</v>
+        <v>-0.3085615055157647</v>
       </c>
       <c r="D61">
-        <v>-0.868893704752583</v>
+        <v>-0.8688871036502523</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1434,13 +1605,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1839549722035997</v>
+        <v>0.1839570848998043</v>
       </c>
       <c r="C62">
-        <v>-0.7539815953085234</v>
+        <v>-0.7539869848750662</v>
       </c>
       <c r="D62">
-        <v>-0.3718310729301445</v>
+        <v>-0.3718246502614098</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.8930698333446999</v>
+        <v>-0.8930676973145348</v>
       </c>
       <c r="C63">
-        <v>-0.3667249424436588</v>
+        <v>-0.3667285539847501</v>
       </c>
       <c r="D63">
-        <v>0.2029161910028656</v>
+        <v>0.2029220795166623</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -1468,13 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.6345515585858766</v>
+        <v>-0.6345492620102382</v>
       </c>
       <c r="C64">
-        <v>-0.1191045567359392</v>
+        <v>-0.1191095912299643</v>
       </c>
       <c r="D64">
-        <v>-0.2841150280379686</v>
+        <v>-0.2841097678479283</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -1485,13 +1665,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.7000780965099529</v>
+        <v>-0.7000772144425487</v>
       </c>
       <c r="C65">
-        <v>-0.07907107193089896</v>
+        <v>-0.07907535710999727</v>
       </c>
       <c r="D65">
-        <v>-0.2734756960368084</v>
+        <v>-0.2734698731359055</v>
+      </c>
+      <c r="E65">
+        <v>30</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -1502,13 +1685,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.2068825676670713</v>
+        <v>0.2068830000812896</v>
       </c>
       <c r="C66">
-        <v>-0.370399423705876</v>
+        <v>-0.3704016204715616</v>
       </c>
       <c r="D66">
-        <v>-0.8239042681778309</v>
+        <v>-0.8238975961471869</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-1.063599531449945</v>
+        <v>-1.063597238320546</v>
       </c>
       <c r="C67">
-        <v>0.08821414368573927</v>
+        <v>0.08821006402719017</v>
       </c>
       <c r="D67">
-        <v>-0.1567825401443355</v>
+        <v>-0.1567771296026076</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.4923867812201519</v>
+        <v>-0.4923854136115608</v>
       </c>
       <c r="C68">
-        <v>-0.3223911600608271</v>
+        <v>-0.3223965622879399</v>
       </c>
       <c r="D68">
-        <v>-0.2297907430162293</v>
+        <v>-0.2297860468333459</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.1018681736128117</v>
+        <v>-0.1018677237164324</v>
       </c>
       <c r="C69">
-        <v>-0.2021180651920678</v>
+        <v>-0.2021219401337485</v>
       </c>
       <c r="D69">
-        <v>-0.7179568329861152</v>
+        <v>-0.7179507536058409</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -1570,13 +1765,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-1.711127200509605</v>
+        <v>-1.711124462234894</v>
       </c>
       <c r="C70">
-        <v>0.1248182268722429</v>
+        <v>0.1248133420309323</v>
       </c>
       <c r="D70">
-        <v>0.4135843660319052</v>
+        <v>0.4135895464902729</v>
+      </c>
+      <c r="E70">
+        <v>30</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.1438915327889114</v>
+        <v>-0.1438911057340518</v>
       </c>
       <c r="C71">
-        <v>-0.4169989727923624</v>
+        <v>-0.4169999021553015</v>
       </c>
       <c r="D71">
-        <v>-0.5482382400677104</v>
+        <v>-0.5482318190125339</v>
+      </c>
+      <c r="E71">
+        <v>30</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.6502006015189659</v>
+        <v>-0.6501994943444865</v>
       </c>
       <c r="C72">
-        <v>-0.2585759817970721</v>
+        <v>-0.2585777958969922</v>
       </c>
       <c r="D72">
-        <v>-0.2113806316077411</v>
+        <v>-0.2113745780391013</v>
+      </c>
+      <c r="E72">
+        <v>30</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -1621,13 +1825,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.9403727454361994</v>
+        <v>-0.9403717880170622</v>
       </c>
       <c r="C73">
-        <v>-0.45201989835589</v>
+        <v>-0.4520251249987693</v>
       </c>
       <c r="D73">
-        <v>0.3257984029812426</v>
+        <v>0.3258048369148371</v>
+      </c>
+      <c r="E73">
+        <v>30</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.9527242248393184</v>
+        <v>-0.9527219699035278</v>
       </c>
       <c r="C74">
-        <v>0.00346108661345168</v>
+        <v>0.003456841740210992</v>
       </c>
       <c r="D74">
-        <v>-0.1191840963329321</v>
+        <v>-0.1191794298193311</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -1655,13 +1865,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-1.051369960586931</v>
+        <v>-1.051368648499689</v>
       </c>
       <c r="C75">
-        <v>0.2508716794953004</v>
+        <v>0.250867710243516</v>
       </c>
       <c r="D75">
-        <v>-0.3003555331553589</v>
+        <v>-0.3003500471268477</v>
+      </c>
+      <c r="E75">
+        <v>30</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.8871790567201691</v>
+        <v>-0.8871780043758181</v>
       </c>
       <c r="C76">
-        <v>-0.3336618823518861</v>
+        <v>-0.333666536390366</v>
       </c>
       <c r="D76">
-        <v>0.1667609325279182</v>
+        <v>0.1667668391179301</v>
+      </c>
+      <c r="E76">
+        <v>30</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -1689,13 +1905,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.7155197586380058</v>
+        <v>-0.7155174151488586</v>
       </c>
       <c r="C77">
-        <v>-0.2801923876976388</v>
+        <v>-0.2801981219998719</v>
       </c>
       <c r="D77">
-        <v>-0.05644289383535439</v>
+        <v>-0.05643752826190429</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -1706,13 +1925,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-1.084526849617063</v>
+        <v>-1.084524732905203</v>
       </c>
       <c r="C78">
-        <v>-0.05744483245788101</v>
+        <v>-0.05744913023624873</v>
       </c>
       <c r="D78">
-        <v>0.03821147210622611</v>
+        <v>0.03821704174427876</v>
+      </c>
+      <c r="E78">
+        <v>30</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -1723,13 +1945,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.913490884710503</v>
+        <v>-0.9134890533295147</v>
       </c>
       <c r="C79">
-        <v>-0.2407441451543204</v>
+        <v>-0.240747862191714</v>
       </c>
       <c r="D79">
-        <v>0.0539194918822925</v>
+        <v>0.05392552095834413</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -1740,13 +1965,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.9802930529695244</v>
+        <v>-0.9802909587623946</v>
       </c>
       <c r="C80">
-        <v>-0.3398625173519656</v>
+        <v>-0.3398671584868393</v>
       </c>
       <c r="D80">
-        <v>0.2585767280521432</v>
+        <v>0.2585820157257944</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -1757,13 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-1.196857814527403</v>
+        <v>-1.19685653273029</v>
       </c>
       <c r="C81">
-        <v>-0.3333772132683083</v>
+        <v>-0.3333817979350371</v>
       </c>
       <c r="D81">
-        <v>0.4652153918799002</v>
+        <v>0.4652210046956783</v>
+      </c>
+      <c r="E81">
+        <v>30</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -1774,13 +2005,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.8337240937716537</v>
+        <v>-0.8337229951955626</v>
       </c>
       <c r="C82">
-        <v>-0.007958984196714841</v>
+        <v>-0.007960634862285404</v>
       </c>
       <c r="D82">
-        <v>-0.271258334865112</v>
+        <v>-0.2712525396551599</v>
+      </c>
+      <c r="E82">
+        <v>30</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-1.015828024115101</v>
+        <v>-1.015826254186146</v>
       </c>
       <c r="C83">
-        <v>0.02792967848512529</v>
+        <v>0.02792705740092194</v>
       </c>
       <c r="D83">
-        <v>-0.08218384837286707</v>
+        <v>-0.08217747284953969</v>
+      </c>
+      <c r="E83">
+        <v>30</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -1808,13 +2045,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-1.093263967324672</v>
+        <v>-1.093261644541494</v>
       </c>
       <c r="C84">
-        <v>0.102185931371262</v>
+        <v>0.1021811529849195</v>
       </c>
       <c r="D84">
-        <v>-0.09291434184964176</v>
+        <v>-0.0929080391934386</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -1825,16 +2065,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.9090659665546441</v>
+        <v>-0.9090652319148523</v>
       </c>
       <c r="C85">
-        <v>-0.09930029366453433</v>
+        <v>-0.09930579567132641</v>
       </c>
       <c r="D85">
-        <v>-0.09930924133294228</v>
+        <v>-0.09930308864510728</v>
+      </c>
+      <c r="E85">
+        <v>30</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1842,13 +2085,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-1.071798040588793</v>
+        <v>-1.071795798249006</v>
       </c>
       <c r="C86">
-        <v>-0.05840446043480216</v>
+        <v>-0.05840893766016955</v>
       </c>
       <c r="D86">
-        <v>0.03320561095007335</v>
+        <v>0.03321084696412979</v>
+      </c>
+      <c r="E86">
+        <v>30</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -1859,13 +2105,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.8438170285130617</v>
+        <v>-0.8438152059786536</v>
       </c>
       <c r="C87">
-        <v>-0.397773601963906</v>
+        <v>-0.3977783018911953</v>
       </c>
       <c r="D87">
-        <v>0.1899088289535764</v>
+        <v>0.1899140237604758</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.4719983294007875</v>
+        <v>-0.4719970784585486</v>
       </c>
       <c r="C88">
-        <v>-0.3214662571623416</v>
+        <v>-0.321470335127061</v>
       </c>
       <c r="D88">
-        <v>-0.2579921985080668</v>
+        <v>-0.2579861260352656</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -1893,13 +2145,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6750604674390814</v>
+        <v>0.6750615119772497</v>
       </c>
       <c r="C89">
-        <v>-0.7086380343757221</v>
+        <v>-0.7086411897075482</v>
       </c>
       <c r="D89">
-        <v>-0.9244785399273536</v>
+        <v>-0.9244731703393048</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -1910,13 +2165,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.7183919578057959</v>
+        <v>-0.7183905755613447</v>
       </c>
       <c r="C90">
-        <v>0.1621884533560626</v>
+        <v>0.1621834615768942</v>
       </c>
       <c r="D90">
-        <v>-0.4962151607099687</v>
+        <v>-0.4962112675432162</v>
+      </c>
+      <c r="E90">
+        <v>30</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -1927,13 +2185,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.4982765119891077</v>
+        <v>-0.4982742978763844</v>
       </c>
       <c r="C91">
-        <v>-0.3036426496089425</v>
+        <v>-0.3036472634183888</v>
       </c>
       <c r="D91">
-        <v>-0.2574872424063166</v>
+        <v>-0.257481506250582</v>
+      </c>
+      <c r="E91">
+        <v>30</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -1944,13 +2205,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.6691794383116367</v>
+        <v>-0.6691792385287858</v>
       </c>
       <c r="C92">
-        <v>-0.1253213117062195</v>
+        <v>-0.1253255184482094</v>
       </c>
       <c r="D92">
-        <v>-0.2963313666832442</v>
+        <v>-0.2963254908994659</v>
+      </c>
+      <c r="E92">
+        <v>30</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.9149450598523259</v>
+        <v>-0.9149425817596378</v>
       </c>
       <c r="C93">
-        <v>0.1363102280192162</v>
+        <v>0.1363070519053332</v>
       </c>
       <c r="D93">
-        <v>-0.3521196300047168</v>
+        <v>-0.3521143174363085</v>
+      </c>
+      <c r="E93">
+        <v>30</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -1978,13 +2245,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.8763667883153299</v>
+        <v>-0.876365504713872</v>
       </c>
       <c r="C94">
-        <v>-0.2577528033519533</v>
+        <v>-0.2577573566113553</v>
       </c>
       <c r="D94">
-        <v>0.02755152988006015</v>
+        <v>0.02755853989455259</v>
+      </c>
+      <c r="E94">
+        <v>30</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.24219876966021</v>
+        <v>-0.2421990742126448</v>
       </c>
       <c r="C95">
-        <v>-0.2305146126474368</v>
+        <v>-0.2305168508851196</v>
       </c>
       <c r="D95">
-        <v>-0.6794501765342782</v>
+        <v>-0.6794439054534719</v>
+      </c>
+      <c r="E95">
+        <v>30</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2012,13 +2285,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-1.008335229887993</v>
+        <v>-1.008333760360032</v>
       </c>
       <c r="C96">
-        <v>-0.6364024507791136</v>
+        <v>-0.6364082354799416</v>
       </c>
       <c r="D96">
-        <v>0.5526171208161057</v>
+        <v>0.5526223709963091</v>
+      </c>
+      <c r="E96">
+        <v>31</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -2029,13 +2305,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.855730554812334</v>
+        <v>-0.8557294016696535</v>
       </c>
       <c r="C97">
-        <v>-0.4708281930502287</v>
+        <v>-0.4708332331836731</v>
       </c>
       <c r="D97">
-        <v>0.2654875025470005</v>
+        <v>0.265492678901141</v>
+      </c>
+      <c r="E97">
+        <v>31</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -2046,13 +2325,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.343983479563421</v>
+        <v>-1.343982112808303</v>
       </c>
       <c r="C98">
-        <v>-0.4287751512450189</v>
+        <v>-0.4287810252142191</v>
       </c>
       <c r="D98">
-        <v>0.6608274493622472</v>
+        <v>0.6608330229849234</v>
+      </c>
+      <c r="E98">
+        <v>31</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -2063,13 +2345,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.9286387482541221</v>
+        <v>-0.9286371089135371</v>
       </c>
       <c r="C99">
-        <v>-0.7897411734432789</v>
+        <v>-0.7897472702987258</v>
       </c>
       <c r="D99">
-        <v>0.6596328966061131</v>
+        <v>0.6596378057428601</v>
+      </c>
+      <c r="E99">
+        <v>31</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -2080,13 +2365,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-1.156445425721465</v>
+        <v>-1.156444025042266</v>
       </c>
       <c r="C100">
-        <v>-0.2544365765497065</v>
+        <v>-0.254441622676321</v>
       </c>
       <c r="D100">
-        <v>0.2818305135735055</v>
+        <v>0.2818350064492557</v>
+      </c>
+      <c r="E100">
+        <v>31</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -2097,13 +2385,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.7950532303916034</v>
+        <v>-0.7950517551703105</v>
       </c>
       <c r="C101">
-        <v>-0.765997980281819</v>
+        <v>-0.7660034732882741</v>
       </c>
       <c r="D101">
-        <v>0.4828625617622513</v>
+        <v>0.482866801406543</v>
+      </c>
+      <c r="E101">
+        <v>31</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -2114,13 +2405,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.5878384933587595</v>
+        <v>-0.5878367481277084</v>
       </c>
       <c r="C102">
-        <v>-0.5413861744868002</v>
+        <v>-0.5413921642146997</v>
       </c>
       <c r="D102">
-        <v>-0.01037454039327634</v>
+        <v>-0.01037068768547444</v>
+      </c>
+      <c r="E102">
+        <v>31</v>
       </c>
       <c r="F102">
         <v>2</v>
@@ -2131,13 +2425,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-2.247075662607388</v>
+        <v>-2.247075979547068</v>
       </c>
       <c r="C103">
-        <v>0.09817934006757872</v>
+        <v>0.09817369597236308</v>
       </c>
       <c r="D103">
-        <v>0.8121196616039894</v>
+        <v>0.8121238075612486</v>
+      </c>
+      <c r="E103">
+        <v>31</v>
       </c>
       <c r="F103">
         <v>2</v>
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.7023963290379287</v>
+        <v>-0.7023942357157094</v>
       </c>
       <c r="C104">
-        <v>-0.5295255672348953</v>
+        <v>-0.5295304718125791</v>
       </c>
       <c r="D104">
-        <v>0.1495373992003481</v>
+        <v>0.1495400436538833</v>
+      </c>
+      <c r="E104">
+        <v>31</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -2165,13 +2465,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-1.708697086549384</v>
+        <v>-1.708695428240267</v>
       </c>
       <c r="C105">
-        <v>-0.1212086385897501</v>
+        <v>-0.1212132923644518</v>
       </c>
       <c r="D105">
-        <v>0.6654040121394498</v>
+        <v>0.6654096172780725</v>
+      </c>
+      <c r="E105">
+        <v>31</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -2182,13 +2485,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-1.474675809318056</v>
+        <v>-1.474673315724586</v>
       </c>
       <c r="C106">
-        <v>-0.1033025512880854</v>
+        <v>-0.1033053058745149</v>
       </c>
       <c r="D106">
-        <v>0.4554369708034371</v>
+        <v>0.4554433254194964</v>
+      </c>
+      <c r="E106">
+        <v>31</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.6063422797849277</v>
+        <v>-0.6063405896231822</v>
       </c>
       <c r="C107">
-        <v>-0.2844991098556008</v>
+        <v>-0.2845038793737105</v>
       </c>
       <c r="D107">
-        <v>-0.1345871427302729</v>
+        <v>-0.1345826564218474</v>
+      </c>
+      <c r="E107">
+        <v>31</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -2216,13 +2525,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-1.533351300116455</v>
+        <v>-1.533349919533376</v>
       </c>
       <c r="C108">
-        <v>-0.6513183691125827</v>
+        <v>-0.6513247566683876</v>
       </c>
       <c r="D108">
-        <v>1.10048675112114</v>
+        <v>1.100492264324493</v>
+      </c>
+      <c r="E108">
+        <v>31</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -2233,13 +2545,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.916386321394739</v>
+        <v>-0.9163855432789759</v>
       </c>
       <c r="C109">
-        <v>-0.2627842111127805</v>
+        <v>-0.2627891268326688</v>
       </c>
       <c r="D109">
-        <v>-0.01018078882883278</v>
+        <v>-0.01017691620142602</v>
+      </c>
+      <c r="E109">
+        <v>31</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -2250,13 +2565,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.9683690387082662</v>
+        <v>-0.9683669437001331</v>
       </c>
       <c r="C110">
-        <v>-0.1801143239660061</v>
+        <v>-0.1801200031864066</v>
       </c>
       <c r="D110">
-        <v>-0.0709641413443205</v>
+        <v>-0.07096100081741308</v>
+      </c>
+      <c r="E110">
+        <v>31</v>
       </c>
       <c r="F110">
         <v>2</v>
@@ -2267,13 +2585,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.3348465118024532</v>
+        <v>-0.3348433868842891</v>
       </c>
       <c r="C111">
-        <v>-0.4627365306273294</v>
+        <v>-0.4627424989935386</v>
       </c>
       <c r="D111">
-        <v>-0.3538775393516268</v>
+        <v>-0.353876181589651</v>
+      </c>
+      <c r="E111">
+        <v>31</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2284,13 +2605,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-1.432770672167331</v>
+        <v>-1.432770483000036</v>
       </c>
       <c r="C112">
-        <v>-0.5284791771905284</v>
+        <v>-0.5284836054710477</v>
       </c>
       <c r="D112">
-        <v>0.8344361825693229</v>
+        <v>0.8344407432639652</v>
+      </c>
+      <c r="E112">
+        <v>31</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -2301,13 +2625,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-1.812372525083884</v>
+        <v>-1.812371419929917</v>
       </c>
       <c r="C113">
-        <v>-0.6781856219153933</v>
+        <v>-0.6781903370387338</v>
       </c>
       <c r="D113">
-        <v>1.307111460407854</v>
+        <v>1.307115706090563</v>
+      </c>
+      <c r="E113">
+        <v>31</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -2318,13 +2645,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-1.365829915066373</v>
+        <v>-1.365828879500594</v>
       </c>
       <c r="C114">
-        <v>-0.6290668572851931</v>
+        <v>-0.6290725197282805</v>
       </c>
       <c r="D114">
-        <v>0.8863712463772551</v>
+        <v>0.8863749165367224</v>
+      </c>
+      <c r="E114">
+        <v>31</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -2335,13 +2665,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-1.131011393911222</v>
+        <v>-1.131010572808866</v>
       </c>
       <c r="C115">
-        <v>-0.4987972461077956</v>
+        <v>-0.4988022902032872</v>
       </c>
       <c r="D115">
-        <v>0.5399565166819731</v>
+        <v>0.5399627866684887</v>
+      </c>
+      <c r="E115">
+        <v>31</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -2352,13 +2685,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-1.152270475212285</v>
+        <v>-1.152270350275768</v>
       </c>
       <c r="C116">
-        <v>-0.7916941820016047</v>
+        <v>-0.7917005669077346</v>
       </c>
       <c r="D116">
-        <v>0.8208441160916535</v>
+        <v>0.8208490870637274</v>
+      </c>
+      <c r="E116">
+        <v>31</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -2369,13 +2705,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.01713154560947981</v>
+        <v>-0.01712993138414678</v>
       </c>
       <c r="C117">
-        <v>-0.4724741211423553</v>
+        <v>-0.4724800094218754</v>
       </c>
       <c r="D117">
-        <v>-0.5110645196288528</v>
+        <v>-0.511059459556822</v>
+      </c>
+      <c r="E117">
+        <v>32</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.1247553571336862</v>
+        <v>0.1247556412948769</v>
       </c>
       <c r="C118">
-        <v>-0.4527104930243842</v>
+        <v>-0.452716409921265</v>
       </c>
       <c r="D118">
-        <v>-0.6994868221439405</v>
+        <v>-0.6994806248487234</v>
+      </c>
+      <c r="E118">
+        <v>32</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.2234862118464261</v>
+        <v>0.2234875165807063</v>
       </c>
       <c r="C119">
-        <v>-0.5861305744226056</v>
+        <v>-0.5861366289081515</v>
       </c>
       <c r="D119">
-        <v>-0.6505442801457968</v>
+        <v>-0.6505396060933931</v>
+      </c>
+      <c r="E119">
+        <v>32</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.2973282976435725</v>
+        <v>0.2973298923214074</v>
       </c>
       <c r="C120">
-        <v>-0.1125978967157741</v>
+        <v>-0.112603482617607</v>
       </c>
       <c r="D120">
-        <v>-1.176803288905503</v>
+        <v>-1.176797903311479</v>
+      </c>
+      <c r="E120">
+        <v>32</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2437,13 +2785,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.1976999779702241</v>
+        <v>0.1977010317451146</v>
       </c>
       <c r="C121">
-        <v>-0.3976269552283176</v>
+        <v>-0.397632635185631</v>
       </c>
       <c r="D121">
-        <v>-0.8313911439882088</v>
+        <v>-0.8313858159506731</v>
+      </c>
+      <c r="E121">
+        <v>32</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2454,13 +2805,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.02024928107433792</v>
+        <v>-0.02024776209566063</v>
       </c>
       <c r="C122">
-        <v>-0.4624747976436991</v>
+        <v>-0.462479282869761</v>
       </c>
       <c r="D122">
-        <v>-0.5863341665521232</v>
+        <v>-0.5863286817982171</v>
+      </c>
+      <c r="E122">
+        <v>32</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2471,13 +2825,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.6562848559386686</v>
+        <v>-0.6562835464675802</v>
       </c>
       <c r="C123">
-        <v>-0.05037642387047869</v>
+        <v>-0.05038051200139149</v>
       </c>
       <c r="D123">
-        <v>-0.4145802187485846</v>
+        <v>-0.4145744447882177</v>
+      </c>
+      <c r="E123">
+        <v>32</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -2488,13 +2845,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.5446992157644071</v>
+        <v>0.5447002699076409</v>
       </c>
       <c r="C124">
-        <v>-0.571504406183261</v>
+        <v>-0.571509588766154</v>
       </c>
       <c r="D124">
-        <v>-0.915410358808479</v>
+        <v>-0.9154039851807426</v>
+      </c>
+      <c r="E124">
+        <v>32</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.1441090852328326</v>
+        <v>0.1441102272128815</v>
       </c>
       <c r="C125">
-        <v>-0.3920250287432656</v>
+        <v>-0.3920305335824819</v>
       </c>
       <c r="D125">
-        <v>-0.7550610783164137</v>
+        <v>-0.7550555677590691</v>
+      </c>
+      <c r="E125">
+        <v>32</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2522,13 +2885,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.4488327251493158</v>
+        <v>0.4488338412043669</v>
       </c>
       <c r="C126">
-        <v>-0.01074964368149703</v>
+        <v>-0.01075505568461413</v>
       </c>
       <c r="D126">
-        <v>-1.453437358485539</v>
+        <v>-1.453430860242068</v>
+      </c>
+      <c r="E126">
+        <v>32</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -2539,13 +2905,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.2209149374057781</v>
+        <v>0.2209159877959603</v>
       </c>
       <c r="C127">
-        <v>-0.4943161171096035</v>
+        <v>-0.4943215190531149</v>
       </c>
       <c r="D127">
-        <v>-0.8136320583202037</v>
+        <v>-0.8136262175165356</v>
+      </c>
+      <c r="E127">
+        <v>32</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2556,13 +2925,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.009377491700667318</v>
+        <v>0.00937822500411585</v>
       </c>
       <c r="C128">
-        <v>-0.4316758291005081</v>
+        <v>-0.4316797482867053</v>
       </c>
       <c r="D128">
-        <v>-0.6417622246587991</v>
+        <v>-0.6417558106236168</v>
+      </c>
+      <c r="E128">
+        <v>32</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -2573,13 +2945,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.1727879489829735</v>
+        <v>-0.1727877877875418</v>
       </c>
       <c r="C129">
-        <v>-0.2627693860147036</v>
+        <v>-0.2627740129093268</v>
       </c>
       <c r="D129">
-        <v>-0.6274174625439923</v>
+        <v>-0.6274121702017299</v>
+      </c>
+      <c r="E129">
+        <v>32</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -2590,13 +2965,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.09911516526830427</v>
+        <v>-0.09911332252853537</v>
       </c>
       <c r="C130">
-        <v>-0.2236782429586088</v>
+        <v>-0.2236835917933051</v>
       </c>
       <c r="D130">
-        <v>-0.7421338536370599</v>
+        <v>-0.7421284302326971</v>
+      </c>
+      <c r="E130">
+        <v>32</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -2607,13 +2985,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.005842645874312519</v>
+        <v>0.005843257740775848</v>
       </c>
       <c r="C131">
-        <v>-0.2364568087538273</v>
+        <v>-0.2364626545411406</v>
       </c>
       <c r="D131">
-        <v>-0.7825274471038861</v>
+        <v>-0.7825218106348375</v>
+      </c>
+      <c r="E131">
+        <v>32</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -2624,13 +3005,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.2443340175777546</v>
+        <v>-0.2443332980101297</v>
       </c>
       <c r="C132">
-        <v>-0.1583690278522204</v>
+        <v>-0.1583733925381114</v>
       </c>
       <c r="D132">
-        <v>-0.609729388569487</v>
+        <v>-0.6097239687330662</v>
+      </c>
+      <c r="E132">
+        <v>32</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -2641,13 +3025,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.7467202181181026</v>
+        <v>0.7467218259453356</v>
       </c>
       <c r="C133">
-        <v>-0.5070869345966322</v>
+        <v>-0.5070917540465527</v>
       </c>
       <c r="D133">
-        <v>-1.208043965071897</v>
+        <v>-1.208038559627914</v>
+      </c>
+      <c r="E133">
+        <v>32</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -2658,13 +3045,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.1727095818059561</v>
+        <v>0.172711022717575</v>
       </c>
       <c r="C134">
-        <v>-0.1949991467243146</v>
+        <v>-0.1950043773953858</v>
       </c>
       <c r="D134">
-        <v>-1.015988776348429</v>
+        <v>-1.015982835659287</v>
+      </c>
+      <c r="E134">
+        <v>32</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.09125202755078264</v>
+        <v>0.09125322632547424</v>
       </c>
       <c r="C135">
-        <v>-0.150889676042231</v>
+        <v>-0.1508945382080484</v>
       </c>
       <c r="D135">
-        <v>-1.018579615992464</v>
+        <v>-1.018573198060923</v>
+      </c>
+      <c r="E135">
+        <v>32</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.09707294941278202</v>
+        <v>-0.09707212071908027</v>
       </c>
       <c r="C136">
-        <v>-0.4757106453673258</v>
+        <v>-0.4757150101660498</v>
       </c>
       <c r="D136">
-        <v>-0.5470359878476292</v>
+        <v>-0.5470307252696276</v>
+      </c>
+      <c r="E136">
+        <v>32</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -2709,13 +3105,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.3352677571646359</v>
+        <v>0.3352692575495074</v>
       </c>
       <c r="C137">
-        <v>-0.3729802155692753</v>
+        <v>-0.372984915671917</v>
       </c>
       <c r="D137">
-        <v>-1.028369735426052</v>
+        <v>-1.028364376054661</v>
+      </c>
+      <c r="E137">
+        <v>32</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -2726,13 +3125,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.4372789142746734</v>
+        <v>-0.4372764502093742</v>
       </c>
       <c r="C138">
-        <v>0.1601346046666265</v>
+        <v>0.1601281921764844</v>
       </c>
       <c r="D138">
-        <v>-0.8532819363287093</v>
+        <v>-0.8532760902469909</v>
+      </c>
+      <c r="E138">
+        <v>32</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -2743,13 +3145,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.07298256440004443</v>
+        <v>0.07298401704012122</v>
       </c>
       <c r="C139">
-        <v>-0.4202449121220422</v>
+        <v>-0.4202491315881466</v>
       </c>
       <c r="D139">
-        <v>-0.661885635516779</v>
+        <v>-0.6618804489154846</v>
+      </c>
+      <c r="E139">
+        <v>32</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -2760,13 +3165,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.001399460299962116</v>
+        <v>-0.001397110476789615</v>
       </c>
       <c r="C140">
-        <v>-0.1966152075636406</v>
+        <v>-0.196620786277208</v>
       </c>
       <c r="D140">
-        <v>-0.8556557680127588</v>
+        <v>-0.8556500855859024</v>
+      </c>
+      <c r="E140">
+        <v>32</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -2777,13 +3185,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.1188055406586315</v>
+        <v>-0.1188041828269655</v>
       </c>
       <c r="C141">
-        <v>-0.2177800346454402</v>
+        <v>-0.2177849103778354</v>
       </c>
       <c r="D141">
-        <v>-0.7065475723707862</v>
+        <v>-0.7065404918148892</v>
+      </c>
+      <c r="E141">
+        <v>32</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -2794,13 +3205,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.2253103682000098</v>
+        <v>0.225312217654158</v>
       </c>
       <c r="C142">
-        <v>-0.2754838838352303</v>
+        <v>-0.2754890501913284</v>
       </c>
       <c r="D142">
-        <v>-0.9525214014469496</v>
+        <v>-0.9525153841137132</v>
+      </c>
+      <c r="E142">
+        <v>32</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.04902179499712328</v>
+        <v>0.04902217028993059</v>
       </c>
       <c r="C143">
-        <v>-0.1037161922545578</v>
+        <v>-0.1037211032565447</v>
       </c>
       <c r="D143">
-        <v>-0.9959698284209415</v>
+        <v>-0.9959633020639901</v>
+      </c>
+      <c r="E143">
+        <v>32</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -2828,13 +3245,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.2645707822777827</v>
+        <v>0.2645725525567291</v>
       </c>
       <c r="C144">
-        <v>-0.5639444058078623</v>
+        <v>-0.5639488182388223</v>
       </c>
       <c r="D144">
-        <v>-0.6877290605980918</v>
+        <v>-0.6877227224487541</v>
+      </c>
+      <c r="E144">
+        <v>32</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -2845,13 +3265,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.2012643012234293</v>
+        <v>0.201264166396915</v>
       </c>
       <c r="C145">
-        <v>-0.3804516065207403</v>
+        <v>-0.3804555022199002</v>
       </c>
       <c r="D145">
-        <v>-0.877205392937546</v>
+        <v>-0.877200920145476</v>
+      </c>
+      <c r="E145">
+        <v>32</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -2862,13 +3285,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.3370522102703836</v>
+        <v>0.3370537361975063</v>
       </c>
       <c r="C146">
-        <v>-0.328608493408586</v>
+        <v>-0.3286139891249661</v>
       </c>
       <c r="D146">
-        <v>-1.024154931678443</v>
+        <v>-1.024149386544102</v>
+      </c>
+      <c r="E146">
+        <v>32</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -2879,13 +3305,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.3719847220903403</v>
+        <v>0.3719867651509819</v>
       </c>
       <c r="C147">
-        <v>-0.3086266277491869</v>
+        <v>-0.3086313343927383</v>
       </c>
       <c r="D147">
-        <v>-1.10208650590711</v>
+        <v>-1.1020811039993</v>
+      </c>
+      <c r="E147">
+        <v>32</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -2896,13 +3325,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.3046408071648335</v>
+        <v>0.3046425398265308</v>
       </c>
       <c r="C148">
-        <v>-0.3797890136214349</v>
+        <v>-0.3797943575324224</v>
       </c>
       <c r="D148">
-        <v>-0.9877197936208875</v>
+        <v>-0.9877143310786356</v>
+      </c>
+      <c r="E148">
+        <v>32</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -2913,13 +3345,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.09133332819908252</v>
+        <v>-0.09133154654593305</v>
       </c>
       <c r="C149">
-        <v>-0.2156720871852017</v>
+        <v>-0.2156779142276425</v>
       </c>
       <c r="D149">
-        <v>-0.732352225635069</v>
+        <v>-0.7323470034345404</v>
+      </c>
+      <c r="E149">
+        <v>32</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -2930,13 +3365,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.3233021289099837</v>
+        <v>0.3233036254356329</v>
       </c>
       <c r="C150">
-        <v>-0.4457140711487309</v>
+        <v>-0.4457187743016368</v>
       </c>
       <c r="D150">
-        <v>-0.9557380175136071</v>
+        <v>-0.955732444858069</v>
+      </c>
+      <c r="E150">
+        <v>32</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -2947,13 +3385,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.3547980597845538</v>
+        <v>-0.3547947680315104</v>
       </c>
       <c r="C151">
-        <v>-0.4165100956244067</v>
+        <v>-0.4165154501722544</v>
       </c>
       <c r="D151">
-        <v>-0.2776039405164358</v>
+        <v>-0.2775989566582484</v>
+      </c>
+      <c r="E151">
+        <v>32</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -2964,13 +3405,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.05968035847759148</v>
+        <v>-0.05967938054578224</v>
       </c>
       <c r="C152">
-        <v>-0.1575322253467264</v>
+        <v>-0.1575375818256783</v>
       </c>
       <c r="D152">
-        <v>-0.8115344304624272</v>
+        <v>-0.8115288073531638</v>
+      </c>
+      <c r="E152">
+        <v>32</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -2981,13 +3425,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.1321601650352902</v>
+        <v>0.1321622232498352</v>
       </c>
       <c r="C153">
-        <v>-0.1066185329388856</v>
+        <v>-0.1066242221126971</v>
       </c>
       <c r="D153">
-        <v>-1.071153264066239</v>
+        <v>-1.071147690211019</v>
+      </c>
+      <c r="E153">
+        <v>32</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -2998,13 +3445,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-1.10429277652576</v>
+        <v>-1.104291445809643</v>
       </c>
       <c r="C154">
-        <v>-0.9250633594282116</v>
+        <v>-0.9250678317132772</v>
       </c>
       <c r="D154">
-        <v>0.8563819099909498</v>
+        <v>0.8563857765315158</v>
+      </c>
+      <c r="E154">
+        <v>33</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -3015,13 +3465,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-1.167871011268768</v>
+        <v>-1.167867218575768</v>
       </c>
       <c r="C155">
-        <v>-0.09161879873422552</v>
+        <v>-0.09162399221124776</v>
       </c>
       <c r="D155">
-        <v>0.110756748032713</v>
+        <v>0.1107630898531301</v>
+      </c>
+      <c r="E155">
+        <v>33</v>
       </c>
       <c r="F155">
         <v>2</v>
@@ -3032,13 +3485,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.5974569963849742</v>
+        <v>-0.5974541838775616</v>
       </c>
       <c r="C156">
-        <v>-0.1219187941666106</v>
+        <v>-0.1219238816305448</v>
       </c>
       <c r="D156">
-        <v>-0.3358731427624718</v>
+        <v>-0.3358680229781422</v>
+      </c>
+      <c r="E156">
+        <v>33</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -3049,13 +3505,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.457480898219321</v>
+        <v>-0.4574792762848224</v>
       </c>
       <c r="C157">
-        <v>-0.3151660487334001</v>
+        <v>-0.315170546241502</v>
       </c>
       <c r="D157">
-        <v>-0.2767394571541442</v>
+        <v>-0.2767347015559396</v>
+      </c>
+      <c r="E157">
+        <v>33</v>
       </c>
       <c r="F157">
         <v>2</v>
@@ -3066,13 +3525,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.2719129102440618</v>
+        <v>-0.2719100056238144</v>
       </c>
       <c r="C158">
-        <v>-0.02788240227767247</v>
+        <v>-0.02788725622671914</v>
       </c>
       <c r="D158">
-        <v>-0.7531255083696012</v>
+        <v>-0.753119932996495</v>
+      </c>
+      <c r="E158">
+        <v>33</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -3083,13 +3545,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.1754828215986576</v>
+        <v>-0.1754810731616691</v>
       </c>
       <c r="C159">
-        <v>-0.1901832839034643</v>
+        <v>-0.1901861200973274</v>
       </c>
       <c r="D159">
-        <v>-0.7473697733438723</v>
+        <v>-0.747363435127459</v>
+      </c>
+      <c r="E159">
+        <v>33</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3100,13 +3565,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.1887815984484843</v>
+        <v>0.1887842069959086</v>
       </c>
       <c r="C160">
-        <v>-0.4635695605436001</v>
+        <v>-0.4635724140299806</v>
       </c>
       <c r="D160">
-        <v>-0.7673777380490709</v>
+        <v>-0.767371778510588</v>
+      </c>
+      <c r="E160">
+        <v>33</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3117,13 +3585,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.1262492969039098</v>
+        <v>0.1262513715895623</v>
       </c>
       <c r="C161">
-        <v>-0.0006926825341437848</v>
+        <v>-0.000694466325266041</v>
       </c>
       <c r="D161">
-        <v>-1.19368064706543</v>
+        <v>-1.193673705231106</v>
+      </c>
+      <c r="E161">
+        <v>33</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3134,13 +3605,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.7156394823896799</v>
+        <v>-0.715637313871244</v>
       </c>
       <c r="C162">
-        <v>-0.3937033756498701</v>
+        <v>-0.3937076892802525</v>
       </c>
       <c r="D162">
-        <v>-0.003052336892845342</v>
+        <v>-0.003046906877451683</v>
+      </c>
+      <c r="E162">
+        <v>33</v>
       </c>
       <c r="F162">
         <v>2</v>
@@ -3151,13 +3625,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-1.108727793114245</v>
+        <v>-1.108727840096065</v>
       </c>
       <c r="C163">
-        <v>-0.3818732393574218</v>
+        <v>-0.3818762714983276</v>
       </c>
       <c r="D163">
-        <v>0.2646257778212149</v>
+        <v>0.2646316527073135</v>
+      </c>
+      <c r="E163">
+        <v>33</v>
       </c>
       <c r="F163">
         <v>2</v>
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.498807536128161</v>
+        <v>-0.4988049945325096</v>
       </c>
       <c r="C164">
-        <v>-0.2933872441051125</v>
+        <v>-0.2933921770224709</v>
       </c>
       <c r="D164">
-        <v>-0.2637812678561314</v>
+        <v>-0.2637753897844988</v>
+      </c>
+      <c r="E164">
+        <v>33</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -3185,13 +3665,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.589403888097358</v>
+        <v>-0.5894015511265858</v>
       </c>
       <c r="C165">
-        <v>0.06024049447570684</v>
+        <v>0.06023572248092235</v>
       </c>
       <c r="D165">
-        <v>-0.5703566234037538</v>
+        <v>-0.5703520078406434</v>
+      </c>
+      <c r="E165">
+        <v>33</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.2633809468456857</v>
+        <v>-0.2633775771457287</v>
       </c>
       <c r="C166">
-        <v>-0.6294599464114233</v>
+        <v>-0.6294661467746312</v>
       </c>
       <c r="D166">
-        <v>-0.1666700282026662</v>
+        <v>-0.1666647665887441</v>
+      </c>
+      <c r="E166">
+        <v>33</v>
       </c>
       <c r="F166">
         <v>2</v>
@@ -3219,13 +3705,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.5506121764935463</v>
+        <v>-0.5506091055110827</v>
       </c>
       <c r="C167">
-        <v>-0.114953100641194</v>
+        <v>-0.1149580647598548</v>
       </c>
       <c r="D167">
-        <v>-0.3782573135484106</v>
+        <v>-0.378252250022674</v>
+      </c>
+      <c r="E167">
+        <v>33</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -3236,13 +3725,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.7570235899103579</v>
+        <v>-0.7570211730457488</v>
       </c>
       <c r="C168">
-        <v>0.09868756837150089</v>
+        <v>0.09868366549479279</v>
       </c>
       <c r="D168">
-        <v>-0.4007349236492849</v>
+        <v>-0.4007301359872382</v>
+      </c>
+      <c r="E168">
+        <v>33</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.8609504236296985</v>
+        <v>-0.8609477873233934</v>
       </c>
       <c r="C169">
-        <v>0.1434919098670737</v>
+        <v>0.1434868466820308</v>
       </c>
       <c r="D169">
-        <v>-0.3581557623079977</v>
+        <v>-0.3581507321610565</v>
+      </c>
+      <c r="E169">
+        <v>33</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -3270,13 +3765,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.4535158167797436</v>
+        <v>-0.4535131883062526</v>
       </c>
       <c r="C170">
-        <v>-0.04518018183402767</v>
+        <v>-0.04518464320902144</v>
       </c>
       <c r="D170">
-        <v>-0.5392940885855716</v>
+        <v>-0.5392889889984229</v>
+      </c>
+      <c r="E170">
+        <v>33</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -3287,13 +3785,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.7612805501449271</v>
+        <v>-0.7612784320569751</v>
       </c>
       <c r="C171">
-        <v>-0.2908537122836742</v>
+        <v>-0.2908582390976777</v>
       </c>
       <c r="D171">
-        <v>-0.04736306051485917</v>
+        <v>-0.04735651411906738</v>
+      </c>
+      <c r="E171">
+        <v>33</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -3304,13 +3805,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.8278100590784895</v>
+        <v>-0.8278081734881556</v>
       </c>
       <c r="C172">
-        <v>-0.01130051255281322</v>
+        <v>-0.01130380420360785</v>
       </c>
       <c r="D172">
-        <v>-0.2280922495635458</v>
+        <v>-0.2280861970113766</v>
+      </c>
+      <c r="E172">
+        <v>33</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -3321,13 +3825,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.4091603287189156</v>
+        <v>-0.409157214141656</v>
       </c>
       <c r="C173">
-        <v>-0.1037888045941896</v>
+        <v>-0.1037929572232977</v>
       </c>
       <c r="D173">
-        <v>-0.5644523795926991</v>
+        <v>-0.564447254353691</v>
+      </c>
+      <c r="E173">
+        <v>33</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.4302056361846321</v>
+        <v>-0.4302028419133075</v>
       </c>
       <c r="C174">
-        <v>0.005764776931858062</v>
+        <v>0.005760424207468751</v>
       </c>
       <c r="D174">
-        <v>-0.6129595271053689</v>
+        <v>-0.6129537211973555</v>
+      </c>
+      <c r="E174">
+        <v>33</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -3355,13 +3865,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.03304814504180414</v>
+        <v>-0.0330455775761863</v>
       </c>
       <c r="C175">
-        <v>0.2494256149379099</v>
+        <v>0.2494216042044833</v>
       </c>
       <c r="D175">
-        <v>-1.305797360407741</v>
+        <v>-1.305790842202928</v>
+      </c>
+      <c r="E175">
+        <v>33</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -3372,13 +3885,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.6786709519621221</v>
+        <v>-0.6786695674794976</v>
       </c>
       <c r="C176">
-        <v>-0.05567078940527248</v>
+        <v>-0.05567411686921711</v>
       </c>
       <c r="D176">
-        <v>-0.3193811190902851</v>
+        <v>-0.3193749482752263</v>
+      </c>
+      <c r="E176">
+        <v>33</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -3389,13 +3905,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.3330803226027615</v>
+        <v>-0.3330779510398959</v>
       </c>
       <c r="C177">
-        <v>-0.5095320411307278</v>
+        <v>-0.5095372161062346</v>
       </c>
       <c r="D177">
-        <v>-0.1747958524806236</v>
+        <v>-0.1747908067619259</v>
+      </c>
+      <c r="E177">
+        <v>33</v>
       </c>
       <c r="F177">
         <v>2</v>
@@ -3406,13 +3925,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.6130914188375994</v>
+        <v>-0.6130888379556825</v>
       </c>
       <c r="C178">
-        <v>0.07371624573152324</v>
+        <v>0.07371178504931691</v>
       </c>
       <c r="D178">
-        <v>-0.5225808927535817</v>
+        <v>-0.522575932798123</v>
+      </c>
+      <c r="E178">
+        <v>33</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -3423,13 +3945,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.1531481556573405</v>
+        <v>-0.1531447800926368</v>
       </c>
       <c r="C179">
-        <v>-0.1839151059552208</v>
+        <v>-0.1839204051272691</v>
       </c>
       <c r="D179">
-        <v>-0.6637582551576617</v>
+        <v>-0.6637529149718984</v>
+      </c>
+      <c r="E179">
+        <v>33</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.2097071607386081</v>
+        <v>-0.2097057522507172</v>
       </c>
       <c r="C180">
-        <v>-0.4069070061390584</v>
+        <v>-0.4069119236014417</v>
       </c>
       <c r="D180">
-        <v>-0.4094720007835204</v>
+        <v>-0.4094673255207921</v>
+      </c>
+      <c r="E180">
+        <v>33</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -3457,13 +3985,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.6377087742114431</v>
+        <v>-0.6377060519201176</v>
       </c>
       <c r="C181">
-        <v>-0.03203594201257534</v>
+        <v>-0.03204014728172919</v>
       </c>
       <c r="D181">
-        <v>-0.4133219767792689</v>
+        <v>-0.4133164568626728</v>
+      </c>
+      <c r="E181">
+        <v>33</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -3474,13 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.4900199987353817</v>
+        <v>-0.4900173243105476</v>
       </c>
       <c r="C182">
-        <v>0.01149560775187386</v>
+        <v>0.01149240094867515</v>
       </c>
       <c r="D182">
-        <v>-0.6447074050739575</v>
+        <v>-0.6447002502841522</v>
+      </c>
+      <c r="E182">
+        <v>33</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -3491,13 +4025,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.01198165013226277</v>
+        <v>0.01198456416825551</v>
       </c>
       <c r="C183">
-        <v>-0.1442734487617321</v>
+        <v>-0.1442767822387219</v>
       </c>
       <c r="D183">
-        <v>-0.903881485122354</v>
+        <v>-0.9038766225738589</v>
+      </c>
+      <c r="E183">
+        <v>33</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -3508,13 +4045,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.1355937931675044</v>
+        <v>0.1355960006624296</v>
       </c>
       <c r="C184">
-        <v>-0.07125490017207456</v>
+        <v>-0.07126140363215552</v>
       </c>
       <c r="D184">
-        <v>-1.130290841675197</v>
+        <v>-1.130286019135774</v>
+      </c>
+      <c r="E184">
+        <v>34</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -3525,13 +4065,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.111380886499877</v>
+        <v>-0.1113795083355324</v>
       </c>
       <c r="C185">
-        <v>0.01203689729130036</v>
+        <v>0.01203130484497744</v>
       </c>
       <c r="D185">
-        <v>-0.9674451935233429</v>
+        <v>-0.9674404310053843</v>
+      </c>
+      <c r="E185">
+        <v>34</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -3542,13 +4085,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.02040533222197892</v>
+        <v>0.02040645765675417</v>
       </c>
       <c r="C186">
-        <v>-0.1239782447499859</v>
+        <v>-0.1239845812729738</v>
       </c>
       <c r="D186">
-        <v>-0.8964597185307384</v>
+        <v>-0.8964553061643746</v>
+      </c>
+      <c r="E186">
+        <v>34</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -3559,13 +4105,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.04467121288095059</v>
+        <v>0.04467128682461547</v>
       </c>
       <c r="C187">
-        <v>-0.5519745565764618</v>
+        <v>-0.5519797976529595</v>
       </c>
       <c r="D187">
-        <v>-0.4979608852248559</v>
+        <v>-0.4979561511453583</v>
+      </c>
+      <c r="E187">
+        <v>34</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -3576,13 +4125,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.2658491442219477</v>
+        <v>0.2658500050518431</v>
       </c>
       <c r="C188">
-        <v>-0.1544874149119229</v>
+        <v>-0.1544926373642002</v>
       </c>
       <c r="D188">
-        <v>-1.174918539454135</v>
+        <v>-1.174913377826658</v>
+      </c>
+      <c r="E188">
+        <v>34</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.3219191551880315</v>
+        <v>-0.3219180223761752</v>
       </c>
       <c r="C189">
-        <v>-0.07753270986019531</v>
+        <v>-0.07753810675016057</v>
       </c>
       <c r="D189">
-        <v>-0.6323303050526994</v>
+        <v>-0.6323259913783892</v>
+      </c>
+      <c r="E189">
+        <v>34</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -3610,13 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.05858318770425569</v>
+        <v>-0.05858187183870929</v>
       </c>
       <c r="C190">
-        <v>-0.3442236438071396</v>
+        <v>-0.3442293049887789</v>
       </c>
       <c r="D190">
-        <v>-0.6270428241965849</v>
+        <v>-0.627038075159871</v>
+      </c>
+      <c r="E190">
+        <v>34</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -3627,13 +4185,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.4012747748621089</v>
+        <v>0.4012742942949943</v>
       </c>
       <c r="C191">
-        <v>-0.4830557176853535</v>
+        <v>-0.4830609905183848</v>
       </c>
       <c r="D191">
-        <v>-0.9316903686733108</v>
+        <v>-0.9316835412176677</v>
+      </c>
+      <c r="E191">
+        <v>34</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -3644,13 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.2567605791600843</v>
+        <v>-0.2567598209942282</v>
       </c>
       <c r="C192">
-        <v>-0.1283345264919208</v>
+        <v>-0.1283402612796179</v>
       </c>
       <c r="D192">
-        <v>-0.6263588360827795</v>
+        <v>-0.6263523394826189</v>
+      </c>
+      <c r="E192">
+        <v>34</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -3661,13 +4225,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.1700548768724858</v>
+        <v>0.1700550698676438</v>
       </c>
       <c r="C193">
-        <v>-0.2015381061354885</v>
+        <v>-0.2015428988239761</v>
       </c>
       <c r="D193">
-        <v>-0.938042162724822</v>
+        <v>-0.93803493117214</v>
+      </c>
+      <c r="E193">
+        <v>34</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -3678,13 +4245,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.08892824327971389</v>
+        <v>0.08892861137748977</v>
       </c>
       <c r="C194">
-        <v>-0.4017068645562978</v>
+        <v>-0.4017134147325048</v>
       </c>
       <c r="D194">
-        <v>-0.6274086290905023</v>
+        <v>-0.6274037504161321</v>
+      </c>
+      <c r="E194">
+        <v>34</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -3695,13 +4265,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.4798029558558039</v>
+        <v>-0.4798025428702072</v>
       </c>
       <c r="C195">
-        <v>-0.3741309248996499</v>
+        <v>-0.374137618873582</v>
       </c>
       <c r="D195">
-        <v>-0.1492676864284521</v>
+        <v>-0.1492626351432775</v>
+      </c>
+      <c r="E195">
+        <v>34</v>
       </c>
       <c r="F195">
         <v>2</v>
@@ -3712,13 +4285,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.2553560916210901</v>
+        <v>0.255356646797071</v>
       </c>
       <c r="C196">
-        <v>-0.418677158412857</v>
+        <v>-0.4186837226948822</v>
       </c>
       <c r="D196">
-        <v>-0.8188655139764163</v>
+        <v>-0.8188605833168745</v>
+      </c>
+      <c r="E196">
+        <v>34</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -3729,13 +4305,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.02751002631776628</v>
+        <v>0.02751127714712519</v>
       </c>
       <c r="C197">
-        <v>-0.1094389963998931</v>
+        <v>-0.1094455379918001</v>
       </c>
       <c r="D197">
-        <v>-0.9431642697615985</v>
+        <v>-0.9431593426259072</v>
+      </c>
+      <c r="E197">
+        <v>34</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.09993526542276629</v>
+        <v>-0.0999350109687341</v>
       </c>
       <c r="C198">
-        <v>-0.1547336042751466</v>
+        <v>-0.1547385270327391</v>
       </c>
       <c r="D198">
-        <v>-0.79029421413515</v>
+        <v>-0.7902893071003128</v>
+      </c>
+      <c r="E198">
+        <v>34</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -3763,13 +4345,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.4056340595746448</v>
+        <v>-0.4056330240558441</v>
       </c>
       <c r="C199">
-        <v>-0.2553344778500374</v>
+        <v>-0.2553414834052148</v>
       </c>
       <c r="D199">
-        <v>-0.3273360193037412</v>
+        <v>-0.3273314856162939</v>
+      </c>
+      <c r="E199">
+        <v>34</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -3780,13 +4365,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.1077738589592848</v>
+        <v>-0.1077730642586492</v>
       </c>
       <c r="C200">
-        <v>-0.1886527202568147</v>
+        <v>-0.188658262832819</v>
       </c>
       <c r="D200">
-        <v>-0.7605360107900656</v>
+        <v>-0.7605311394341184</v>
+      </c>
+      <c r="E200">
+        <v>34</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -3797,13 +4385,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.07415321644314962</v>
+        <v>-0.07415192064974722</v>
       </c>
       <c r="C201">
-        <v>0.02539344744625271</v>
+        <v>0.0253877772831328</v>
       </c>
       <c r="D201">
-        <v>-0.9658123419485521</v>
+        <v>-0.9658078339917703</v>
+      </c>
+      <c r="E201">
+        <v>34</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -3814,13 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.06574843392756111</v>
+        <v>0.06574922950817239</v>
       </c>
       <c r="C202">
-        <v>-0.2513362824966119</v>
+        <v>-0.2513424950386194</v>
       </c>
       <c r="D202">
-        <v>-0.8287241226609219</v>
+        <v>-0.82872014964556</v>
+      </c>
+      <c r="E202">
+        <v>34</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -3831,13 +4425,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.02212296883752106</v>
+        <v>0.02212366038004826</v>
       </c>
       <c r="C203">
-        <v>-0.1426248882473896</v>
+        <v>-0.1426312314073182</v>
       </c>
       <c r="D203">
-        <v>-0.8536439191145579</v>
+        <v>-0.8536390404129479</v>
+      </c>
+      <c r="E203">
+        <v>34</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -3848,13 +4445,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.784216659278995</v>
+        <v>0.7842167181367405</v>
       </c>
       <c r="C204">
-        <v>-0.3904902804098757</v>
+        <v>-0.3904954902443217</v>
       </c>
       <c r="D204">
-        <v>-1.404560722636386</v>
+        <v>-1.404556340688472</v>
+      </c>
+      <c r="E204">
+        <v>34</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -3865,13 +4465,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.2307362969368077</v>
+        <v>0.2307376481677661</v>
       </c>
       <c r="C205">
-        <v>-0.06373281874783587</v>
+        <v>-0.06373772795012084</v>
       </c>
       <c r="D205">
-        <v>-1.140785515580471</v>
+        <v>-1.140780264247179</v>
+      </c>
+      <c r="E205">
+        <v>34</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -3882,13 +4485,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.04442404746038647</v>
+        <v>-0.04442311187800806</v>
       </c>
       <c r="C206">
-        <v>-0.2547109315794003</v>
+        <v>-0.2547165774565539</v>
       </c>
       <c r="D206">
-        <v>-0.6804295011957081</v>
+        <v>-0.6804243668661554</v>
+      </c>
+      <c r="E206">
+        <v>34</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -3899,13 +4505,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.0343389410466113</v>
+        <v>-0.03433898591447189</v>
       </c>
       <c r="C207">
-        <v>-0.2465715463040635</v>
+        <v>-0.2465760264275692</v>
       </c>
       <c r="D207">
-        <v>-0.7639982140882466</v>
+        <v>-0.763992365064847</v>
+      </c>
+      <c r="E207">
+        <v>34</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.1392606927918537</v>
+        <v>-0.139259015692032</v>
       </c>
       <c r="C208">
-        <v>-0.08014893636637743</v>
+        <v>-0.08015434555691567</v>
       </c>
       <c r="D208">
-        <v>-0.8347847998117216</v>
+        <v>-0.8347803081389884</v>
+      </c>
+      <c r="E208">
+        <v>34</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -3933,13 +4545,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.1146462202050009</v>
+        <v>0.1146469029083833</v>
       </c>
       <c r="C209">
-        <v>-0.1582874807684601</v>
+        <v>-0.1582943225816387</v>
       </c>
       <c r="D209">
-        <v>-0.9454322010507177</v>
+        <v>-0.9454271317290709</v>
+      </c>
+      <c r="E209">
+        <v>34</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -3950,13 +4565,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.1387063249895724</v>
+        <v>0.1387069267574524</v>
       </c>
       <c r="C210">
-        <v>-0.06341217358764889</v>
+        <v>-0.06341773622821698</v>
       </c>
       <c r="D210">
-        <v>-1.128136150823423</v>
+        <v>-1.128130525052267</v>
+      </c>
+      <c r="E210">
+        <v>34</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -3967,13 +4585,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.01976312526113627</v>
+        <v>-0.01976285975287925</v>
       </c>
       <c r="C211">
-        <v>-0.4671250854909029</v>
+        <v>-0.4671311919561176</v>
       </c>
       <c r="D211">
-        <v>-0.497877275094251</v>
+        <v>-0.4978725917851232</v>
+      </c>
+      <c r="E211">
+        <v>34</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -3984,13 +4605,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.1026204716847361</v>
+        <v>-0.1026201557604775</v>
       </c>
       <c r="C212">
-        <v>-0.1943487408210598</v>
+        <v>-0.1943541603557181</v>
       </c>
       <c r="D212">
-        <v>-0.7555560447522007</v>
+        <v>-0.7555509485392987</v>
+      </c>
+      <c r="E212">
+        <v>34</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4001,13 +4625,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.2679171637027472</v>
+        <v>0.2679178664115636</v>
       </c>
       <c r="C213">
-        <v>-0.3746341726754257</v>
+        <v>-0.3746401320174635</v>
       </c>
       <c r="D213">
-        <v>-0.8752454032018058</v>
+        <v>-0.8752408513875772</v>
+      </c>
+      <c r="E213">
+        <v>34</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.5724938469085065</v>
+        <v>0.5724955020209059</v>
       </c>
       <c r="C214">
-        <v>-0.1310224780530005</v>
+        <v>-0.1310278739596426</v>
       </c>
       <c r="D214">
-        <v>-1.535495357774975</v>
+        <v>-1.535490456473157</v>
+      </c>
+      <c r="E214">
+        <v>35</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4035,13 +4665,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.5000122065392905</v>
+        <v>0.5000145856220184</v>
       </c>
       <c r="C215">
-        <v>-0.1990473630467158</v>
+        <v>-0.1990519966391961</v>
       </c>
       <c r="D215">
-        <v>-1.347007433044631</v>
+        <v>-1.347001958753089</v>
+      </c>
+      <c r="E215">
+        <v>35</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.4396137184070875</v>
+        <v>0.4396159690958278</v>
       </c>
       <c r="C216">
-        <v>-0.09220546205419233</v>
+        <v>-0.09221014805804723</v>
       </c>
       <c r="D216">
-        <v>-1.378484490357801</v>
+        <v>-1.37847893831132</v>
+      </c>
+      <c r="E216">
+        <v>35</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4069,13 +4705,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.4690297387151288</v>
+        <v>0.4690316054181501</v>
       </c>
       <c r="C217">
-        <v>-0.009973540734038722</v>
+        <v>-0.009978382133523978</v>
       </c>
       <c r="D217">
-        <v>-1.518739671946782</v>
+        <v>-1.51873440290893</v>
+      </c>
+      <c r="E217">
+        <v>35</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4086,13 +4725,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.255589607963051</v>
+        <v>0.2555914724828005</v>
       </c>
       <c r="C218">
-        <v>-0.06750393729896029</v>
+        <v>-0.06750918401747627</v>
       </c>
       <c r="D218">
-        <v>-1.25924697053174</v>
+        <v>-1.259241084632137</v>
+      </c>
+      <c r="E218">
+        <v>35</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4103,13 +4745,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.5565074801926818</v>
+        <v>0.5565093027565035</v>
       </c>
       <c r="C219">
-        <v>-0.3798565895558119</v>
+        <v>-0.379861457835594</v>
       </c>
       <c r="D219">
-        <v>-1.231662573399098</v>
+        <v>-1.231657260556363</v>
+      </c>
+      <c r="E219">
+        <v>35</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4120,13 +4765,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.2340541351223776</v>
+        <v>0.2340553382510401</v>
       </c>
       <c r="C220">
-        <v>-0.5140459637167152</v>
+        <v>-0.5140520826387327</v>
       </c>
       <c r="D220">
-        <v>-0.7702811050839643</v>
+        <v>-0.7702752512492279</v>
+      </c>
+      <c r="E220">
+        <v>35</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -4137,13 +4785,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.06199944812001119</v>
+        <v>0.06200170331894711</v>
       </c>
       <c r="C221">
-        <v>-0.1069294396489283</v>
+        <v>-0.1069346002503765</v>
       </c>
       <c r="D221">
-        <v>-1.007852779831575</v>
+        <v>-1.007847706108316</v>
+      </c>
+      <c r="E221">
+        <v>35</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -4154,13 +4805,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.5969373710702601</v>
+        <v>0.5969395453463195</v>
       </c>
       <c r="C222">
-        <v>-0.3491497380918236</v>
+        <v>-0.3491553704698789</v>
       </c>
       <c r="D222">
-        <v>-1.260591177865916</v>
+        <v>-1.260585247603093</v>
+      </c>
+      <c r="E222">
+        <v>35</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4171,13 +4825,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.7248942335201485</v>
+        <v>0.7248969878240815</v>
       </c>
       <c r="C223">
-        <v>-0.4433549730247347</v>
+        <v>-0.4433608066030535</v>
       </c>
       <c r="D223">
-        <v>-1.293183320072474</v>
+        <v>-1.293178164688382</v>
+      </c>
+      <c r="E223">
+        <v>35</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.4114796161541087</v>
+        <v>0.4114814217021909</v>
       </c>
       <c r="C224">
-        <v>-0.02660611468430468</v>
+        <v>-0.02661099528289984</v>
       </c>
       <c r="D224">
-        <v>-1.446455845876727</v>
+        <v>-1.446450348025984</v>
+      </c>
+      <c r="E224">
+        <v>35</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4205,13 +4865,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.9449209239360044</v>
+        <v>0.944923146988374</v>
       </c>
       <c r="C225">
-        <v>-0.3427894211333081</v>
+        <v>-0.342794663868228</v>
       </c>
       <c r="D225">
-        <v>-1.528830197014036</v>
+        <v>-1.52882519706861</v>
+      </c>
+      <c r="E225">
+        <v>35</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4222,13 +4885,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.4017148104036273</v>
+        <v>0.4017169425144199</v>
       </c>
       <c r="C226">
-        <v>-0.2534384397658896</v>
+        <v>-0.253443823566628</v>
       </c>
       <c r="D226">
-        <v>-1.156644456082375</v>
+        <v>-1.15663899071568</v>
+      </c>
+      <c r="E226">
+        <v>35</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4239,13 +4905,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.4109370926399727</v>
+        <v>0.4109385384561384</v>
       </c>
       <c r="C227">
-        <v>-0.1682423260619593</v>
+        <v>-0.1682475658303351</v>
       </c>
       <c r="D227">
-        <v>-1.309973824189382</v>
+        <v>-1.309967681085951</v>
+      </c>
+      <c r="E227">
+        <v>35</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4256,13 +4925,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3060584475767991</v>
+        <v>0.3060601367211416</v>
       </c>
       <c r="C228">
-        <v>-0.1283082595336822</v>
+        <v>-0.128312189545718</v>
       </c>
       <c r="D228">
-        <v>-1.220770850526732</v>
+        <v>-1.220764499540152</v>
+      </c>
+      <c r="E228">
+        <v>35</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -4273,13 +4945,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3751184846540496</v>
+        <v>0.3751199675270047</v>
       </c>
       <c r="C229">
-        <v>-0.1778124366068596</v>
+        <v>-0.1778180124618648</v>
       </c>
       <c r="D229">
-        <v>-1.201418951897643</v>
+        <v>-1.201412757710278</v>
+      </c>
+      <c r="E229">
+        <v>35</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -4290,13 +4965,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.1631236293847457</v>
+        <v>0.1631245529067132</v>
       </c>
       <c r="C230">
-        <v>-0.258259337542407</v>
+        <v>-0.2582634870104266</v>
       </c>
       <c r="D230">
-        <v>-0.8938357222557028</v>
+        <v>-0.8938298092405537</v>
+      </c>
+      <c r="E230">
+        <v>35</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -4307,13 +4985,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.2938798437991041</v>
+        <v>0.2938815709648844</v>
       </c>
       <c r="C231">
-        <v>-0.1336735915345628</v>
+        <v>-0.1336789408984453</v>
       </c>
       <c r="D231">
-        <v>-1.190067708211057</v>
+        <v>-1.190061231886826</v>
+      </c>
+      <c r="E231">
+        <v>35</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -4324,13 +5005,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.2251455936588233</v>
+        <v>0.2251468166251065</v>
       </c>
       <c r="C232">
-        <v>-0.3095205547109777</v>
+        <v>-0.3095242169617865</v>
       </c>
       <c r="D232">
-        <v>-0.9503322842149038</v>
+        <v>-0.9503264975058071</v>
+      </c>
+      <c r="E232">
+        <v>35</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.6541917986327547</v>
+        <v>0.6541933437420669</v>
       </c>
       <c r="C233">
-        <v>-0.1347256198668264</v>
+        <v>-0.134730382610418</v>
       </c>
       <c r="D233">
-        <v>-1.488301343228945</v>
+        <v>-1.488296019213239</v>
+      </c>
+      <c r="E233">
+        <v>35</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -4358,13 +5045,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.0336712576183153</v>
+        <v>0.03367161121630589</v>
       </c>
       <c r="C234">
-        <v>-0.3899193752669656</v>
+        <v>-0.3899234445954363</v>
       </c>
       <c r="D234">
-        <v>-0.6808728112339102</v>
+        <v>-0.6808671075793449</v>
+      </c>
+      <c r="E234">
+        <v>35</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -4375,13 +5065,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.2348632751158511</v>
+        <v>-0.2348616574544569</v>
       </c>
       <c r="C235">
-        <v>-0.2331144588676103</v>
+        <v>-0.2331195308948671</v>
       </c>
       <c r="D235">
-        <v>-0.6084747600058296</v>
+        <v>-0.6084697395674896</v>
+      </c>
+      <c r="E235">
+        <v>35</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -4392,13 +5085,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.1777461727262696</v>
+        <v>-0.1777453181616716</v>
       </c>
       <c r="C236">
-        <v>-0.3518917350003101</v>
+        <v>-0.3518960917747603</v>
       </c>
       <c r="D236">
-        <v>-0.5037746566630494</v>
+        <v>-0.5037683736839151</v>
+      </c>
+      <c r="E236">
+        <v>35</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -4409,13 +5105,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.3636132422771877</v>
+        <v>0.3636150227745419</v>
       </c>
       <c r="C237">
-        <v>-0.1989300006977967</v>
+        <v>-0.1989350132986268</v>
       </c>
       <c r="D237">
-        <v>-1.191212132013077</v>
+        <v>-1.191206229909067</v>
+      </c>
+      <c r="E237">
+        <v>35</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -4426,13 +5125,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.04419594248980296</v>
+        <v>0.04419680347751371</v>
       </c>
       <c r="C238">
-        <v>-0.01051167534376135</v>
+        <v>-0.01051540067233153</v>
       </c>
       <c r="D238">
-        <v>-1.103096760334078</v>
+        <v>-1.103090287216343</v>
+      </c>
+      <c r="E238">
+        <v>35</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.3762612041585378</v>
+        <v>0.3762630455169551</v>
       </c>
       <c r="C239">
-        <v>-0.3109885222051837</v>
+        <v>-0.3109934435992269</v>
       </c>
       <c r="D239">
-        <v>-1.063439166769842</v>
+        <v>-1.06343363031582</v>
+      </c>
+      <c r="E239">
+        <v>35</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -4460,13 +5165,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.243659111833938</v>
+        <v>0.2436607617422397</v>
       </c>
       <c r="C240">
-        <v>-0.009198343924235269</v>
+        <v>-0.009203506019890006</v>
       </c>
       <c r="D240">
-        <v>-1.272523119098735</v>
+        <v>-1.272516167842348</v>
+      </c>
+      <c r="E240">
+        <v>35</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -4477,13 +5185,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.694939798416311</v>
+        <v>0.6949414108704198</v>
       </c>
       <c r="C241">
-        <v>-0.3634088165822973</v>
+        <v>-0.363413907684612</v>
       </c>
       <c r="D241">
-        <v>-1.259841341171343</v>
+        <v>-1.259836127021221</v>
+      </c>
+      <c r="E241">
+        <v>35</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -4494,13 +5205,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.2597484115109687</v>
+        <v>0.2597499219740759</v>
       </c>
       <c r="C242">
-        <v>-0.708138960701836</v>
+        <v>-0.708143898111385</v>
       </c>
       <c r="D242">
-        <v>-0.4823815737446215</v>
+        <v>-0.4823758767772273</v>
+      </c>
+      <c r="E242">
+        <v>35</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -4511,13 +5225,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.06765945544325852</v>
+        <v>0.06766037544468907</v>
       </c>
       <c r="C243">
-        <v>-0.3414082126618975</v>
+        <v>-0.3414137339503382</v>
       </c>
       <c r="D243">
-        <v>-0.7832767629185473</v>
+        <v>-0.7832720575687552</v>
+      </c>
+      <c r="E243">
+        <v>35</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -4528,13 +5245,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.2301521913338661</v>
+        <v>0.2301539224626062</v>
       </c>
       <c r="C244">
-        <v>-0.6670928380404804</v>
+        <v>-0.667098144322299</v>
       </c>
       <c r="D244">
-        <v>-0.5242733356202622</v>
+        <v>-0.5242685489617368</v>
+      </c>
+      <c r="E244">
+        <v>35</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -4545,13 +5265,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.3797575850359701</v>
+        <v>0.3797592580973421</v>
       </c>
       <c r="C245">
-        <v>-0.4780689335932121</v>
+        <v>-0.4780731660838591</v>
       </c>
       <c r="D245">
-        <v>-0.8889771668587548</v>
+        <v>-0.8889721819913791</v>
+      </c>
+      <c r="E245">
+        <v>35</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -4562,13 +5285,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.08397877939535228</v>
+        <v>0.0839800124838647</v>
       </c>
       <c r="C246">
-        <v>-0.6365332715377872</v>
+        <v>-0.6365387201914576</v>
       </c>
       <c r="D246">
-        <v>-0.4269913050979474</v>
+        <v>-0.4269857722030417</v>
+      </c>
+      <c r="E246">
+        <v>35</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -4579,13 +5305,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.3099124572111193</v>
+        <v>0.3099142270365246</v>
       </c>
       <c r="C247">
-        <v>-0.1493461676200916</v>
+        <v>-0.1493510691414843</v>
       </c>
       <c r="D247">
-        <v>-1.152260888473516</v>
+        <v>-1.152254727479392</v>
+      </c>
+      <c r="E247">
+        <v>35</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -4596,13 +5325,16 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.0548508042959561</v>
+        <v>0.05485320720843411</v>
       </c>
       <c r="C248">
-        <v>-0.1698505394774723</v>
+        <v>-0.1698563111307632</v>
       </c>
       <c r="D248">
-        <v>-0.8977790501961332</v>
+        <v>-0.8977728982145476</v>
+      </c>
+      <c r="E248">
+        <v>35</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -4613,13 +5345,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.3471492576383105</v>
+        <v>-0.3471483564076657</v>
       </c>
       <c r="C249">
-        <v>-0.3950656486338022</v>
+        <v>-0.3950701034063182</v>
       </c>
       <c r="D249">
-        <v>-0.3076584559933631</v>
+        <v>-0.3076527382196144</v>
+      </c>
+      <c r="E249">
+        <v>36</v>
       </c>
       <c r="F249">
         <v>2</v>
@@ -4630,13 +5365,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-1.096842237829598</v>
+        <v>-1.096841206122847</v>
       </c>
       <c r="C250">
-        <v>-0.4662591380864819</v>
+        <v>-0.4662639749959051</v>
       </c>
       <c r="D250">
-        <v>0.4132942096174148</v>
+        <v>0.413299269559766</v>
+      </c>
+      <c r="E250">
+        <v>36</v>
       </c>
       <c r="F250">
         <v>2</v>
@@ -4647,13 +5385,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.6406327950600007</v>
+        <v>-0.6406317948366298</v>
       </c>
       <c r="C251">
-        <v>-0.3161336081166868</v>
+        <v>-0.3161384633234245</v>
       </c>
       <c r="D251">
-        <v>-0.1022928828419157</v>
+        <v>-0.1022874131186439</v>
+      </c>
+      <c r="E251">
+        <v>36</v>
       </c>
       <c r="F251">
         <v>2</v>
@@ -4664,13 +5405,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.8581573087679102</v>
+        <v>-0.8581567907760567</v>
       </c>
       <c r="C252">
-        <v>-0.1405966874806584</v>
+        <v>-0.1406007441807082</v>
       </c>
       <c r="D252">
-        <v>-0.1068955537733989</v>
+        <v>-0.106891015803561</v>
+      </c>
+      <c r="E252">
+        <v>36</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -4681,13 +5425,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.8395053880694792</v>
+        <v>-0.8395045768180572</v>
       </c>
       <c r="C253">
-        <v>-0.718270673137152</v>
+        <v>-0.7182763339870382</v>
       </c>
       <c r="D253">
-        <v>0.4170111226445092</v>
+        <v>0.417015529061371</v>
+      </c>
+      <c r="E253">
+        <v>36</v>
       </c>
       <c r="F253">
         <v>2</v>
@@ -4698,13 +5445,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.7657960386258967</v>
+        <v>-0.7657954239591461</v>
       </c>
       <c r="C254">
-        <v>-0.4635592088848067</v>
+        <v>-0.4635634920237401</v>
       </c>
       <c r="D254">
-        <v>0.09292088426423528</v>
+        <v>0.09292493220591769</v>
+      </c>
+      <c r="E254">
+        <v>36</v>
       </c>
       <c r="F254">
         <v>2</v>
@@ -4715,13 +5465,16 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-0.6834131087907671</v>
+        <v>-0.6834125552629923</v>
       </c>
       <c r="C255">
-        <v>-0.5216037357883176</v>
+        <v>-0.5216079384308219</v>
       </c>
       <c r="D255">
-        <v>0.1521885671126111</v>
+        <v>0.1521934808069029</v>
+      </c>
+      <c r="E255">
+        <v>36</v>
       </c>
       <c r="F255">
         <v>2</v>
@@ -4732,13 +5485,16 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.5553816333513707</v>
+        <v>-0.5553808355657497</v>
       </c>
       <c r="C256">
-        <v>-0.2287006451049473</v>
+        <v>-0.2287048306216603</v>
       </c>
       <c r="D256">
-        <v>-0.280253723731561</v>
+        <v>-0.280247934656822</v>
+      </c>
+      <c r="E256">
+        <v>36</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -4749,13 +5505,16 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-1.158458773531895</v>
+        <v>-1.158457892666507</v>
       </c>
       <c r="C257">
-        <v>-0.1912986221622543</v>
+        <v>-0.1913044737772173</v>
       </c>
       <c r="D257">
-        <v>0.1919422873432366</v>
+        <v>0.1919469127537866</v>
+      </c>
+      <c r="E257">
+        <v>36</v>
       </c>
       <c r="F257">
         <v>2</v>
@@ -4766,13 +5525,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.5819205682491942</v>
+        <v>-0.5819200981042955</v>
       </c>
       <c r="C258">
-        <v>-0.5132066450136963</v>
+        <v>-0.5132110692541318</v>
       </c>
       <c r="D258">
-        <v>-0.01078922540245209</v>
+        <v>-0.01078562205735889</v>
+      </c>
+      <c r="E258">
+        <v>36</v>
       </c>
       <c r="F258">
         <v>2</v>
@@ -4783,13 +5545,16 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.772208978223158</v>
+        <v>-0.7722081313331235</v>
       </c>
       <c r="C259">
-        <v>-0.3740128680424643</v>
+        <v>-0.3740172118179781</v>
       </c>
       <c r="D259">
-        <v>0.0668696199705634</v>
+        <v>0.06687565962735464</v>
+      </c>
+      <c r="E259">
+        <v>36</v>
       </c>
       <c r="F259">
         <v>2</v>
@@ -4800,13 +5565,16 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-0.6596825183985068</v>
+        <v>-0.6596815544303448</v>
       </c>
       <c r="C260">
-        <v>-0.2032967765176416</v>
+        <v>-0.2033012194752105</v>
       </c>
       <c r="D260">
-        <v>-0.2380583147095875</v>
+        <v>-0.2380527097740025</v>
+      </c>
+      <c r="E260">
+        <v>36</v>
       </c>
       <c r="F260">
         <v>1</v>
@@ -4817,13 +5585,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.8676023922413082</v>
+        <v>-0.8676007046381332</v>
       </c>
       <c r="C261">
-        <v>-0.2554547884528533</v>
+        <v>-0.2554597594015959</v>
       </c>
       <c r="D261">
-        <v>0.01141709720375805</v>
+        <v>0.01142190065152571</v>
+      </c>
+      <c r="E261">
+        <v>36</v>
       </c>
       <c r="F261">
         <v>2</v>
@@ -4834,13 +5605,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.8006398317876645</v>
+        <v>-0.8006393241834021</v>
       </c>
       <c r="C262">
-        <v>-0.3114760666838078</v>
+        <v>-0.3114806601588879</v>
       </c>
       <c r="D262">
-        <v>0.03275471853421519</v>
+        <v>0.03275988482449732</v>
+      </c>
+      <c r="E262">
+        <v>36</v>
       </c>
       <c r="F262">
         <v>2</v>
@@ -4851,13 +5625,16 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.2375995583839848</v>
+        <v>-0.2375987228367252</v>
       </c>
       <c r="C263">
-        <v>-0.1804012761094826</v>
+        <v>-0.1804056963847448</v>
       </c>
       <c r="D263">
-        <v>-0.6447201454859277</v>
+        <v>-0.644713295335502</v>
+      </c>
+      <c r="E263">
+        <v>36</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -4868,13 +5645,16 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.5348919650786195</v>
+        <v>-0.5348918893551098</v>
       </c>
       <c r="C264">
-        <v>-0.4617836884596913</v>
+        <v>-0.4617900727374153</v>
       </c>
       <c r="D264">
-        <v>-0.09824073808742451</v>
+        <v>-0.09823652193305676</v>
+      </c>
+      <c r="E264">
+        <v>36</v>
       </c>
       <c r="F264">
         <v>2</v>
@@ -4885,13 +5665,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.7016495877085531</v>
+        <v>-0.701648378740018</v>
       </c>
       <c r="C265">
-        <v>-0.306366420921262</v>
+        <v>-0.3063712539114398</v>
       </c>
       <c r="D265">
-        <v>-0.07885615556416647</v>
+        <v>-0.07885095211879778</v>
+      </c>
+      <c r="E265">
+        <v>36</v>
       </c>
       <c r="F265">
         <v>2</v>
@@ -4902,13 +5685,16 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.7450849583186403</v>
+        <v>-0.7450835387844882</v>
       </c>
       <c r="C266">
-        <v>0.1072865441773079</v>
+        <v>0.1072821265883871</v>
       </c>
       <c r="D266">
-        <v>-0.4375199952813184</v>
+        <v>-0.4375145205913215</v>
+      </c>
+      <c r="E266">
+        <v>36</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -4919,13 +5705,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-0.527001624818335</v>
+        <v>-0.5270006969840928</v>
       </c>
       <c r="C267">
-        <v>-0.4794850503801095</v>
+        <v>-0.4794886044393348</v>
       </c>
       <c r="D267">
-        <v>-0.09242232023740982</v>
+        <v>-0.09241638778994743</v>
+      </c>
+      <c r="E267">
+        <v>36</v>
       </c>
       <c r="F267">
         <v>2</v>
@@ -4936,13 +5725,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.4127973900606794</v>
+        <v>-0.4127961128858473</v>
       </c>
       <c r="C268">
-        <v>-0.2999395976559734</v>
+        <v>-0.2999439747544837</v>
       </c>
       <c r="D268">
-        <v>-0.3367537450522138</v>
+        <v>-0.3367481218241494</v>
+      </c>
+      <c r="E268">
+        <v>36</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -4953,13 +5745,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.9866821240587866</v>
+        <v>-0.9866812348770101</v>
       </c>
       <c r="C269">
-        <v>-0.3941760012674858</v>
+        <v>-0.3941808311447459</v>
       </c>
       <c r="D269">
-        <v>0.2614548057121473</v>
+        <v>0.2614598851292899</v>
+      </c>
+      <c r="E269">
+        <v>36</v>
       </c>
       <c r="F269">
         <v>2</v>
@@ -4970,13 +5765,16 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-0.9654115216434456</v>
+        <v>-0.965410620828754</v>
       </c>
       <c r="C270">
-        <v>-0.3880860994056876</v>
+        <v>-0.3880905308298893</v>
       </c>
       <c r="D270">
-        <v>0.2513874560297833</v>
+        <v>0.2513929543623757</v>
+      </c>
+      <c r="E270">
+        <v>36</v>
       </c>
       <c r="F270">
         <v>2</v>
@@ -4987,13 +5785,16 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-1.056158223959647</v>
+        <v>-1.056158528965856</v>
       </c>
       <c r="C271">
-        <v>-0.816613102120782</v>
+        <v>-0.8166162528791467</v>
       </c>
       <c r="D271">
-        <v>0.7544148346405093</v>
+        <v>0.7544206204711669</v>
+      </c>
+      <c r="E271">
+        <v>36</v>
       </c>
       <c r="F271">
         <v>2</v>
@@ -5004,13 +5805,16 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-1.072407576247719</v>
+        <v>-1.072408397428363</v>
       </c>
       <c r="C272">
-        <v>-0.7681876915715877</v>
+        <v>-0.7681931846544436</v>
       </c>
       <c r="D272">
-        <v>0.6304748129590896</v>
+        <v>0.6304787393784318</v>
+      </c>
+      <c r="E272">
+        <v>36</v>
       </c>
       <c r="F272">
         <v>2</v>
@@ -5021,13 +5825,16 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-0.9057856099835216</v>
+        <v>-0.9057845784702708</v>
       </c>
       <c r="C273">
-        <v>-0.4933346293542643</v>
+        <v>-0.4933394214856986</v>
       </c>
       <c r="D273">
-        <v>0.3192817729113735</v>
+        <v>0.3192868743941443</v>
+      </c>
+      <c r="E273">
+        <v>36</v>
       </c>
       <c r="F273">
         <v>2</v>
